--- a/ScanSat_Template_TB-Power_v0.1.xlsx
+++ b/ScanSat_Template_TB-Power_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Change-log" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,10 +15,11 @@
     <sheet name="Power Modes" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="BoH" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Magnetometer" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Startrakers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Rods" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="RW" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Propulsion" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Gyro" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Startrakers" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Rods" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="RW" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Propulsion" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="412">
   <si>
     <t xml:space="preserve">Project:</t>
   </si>
@@ -431,12 +432,180 @@
     <t xml:space="preserve">Bazookas</t>
   </si>
   <si>
+    <t xml:space="preserve">Gyroscop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass (kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bias Stability (°h-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Walk (°h-1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power consumption (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preis €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+accelerometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIS16334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4-axis MEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16334.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pdfs.semanticscholar.org/0141/cd1376df386792a915a610c72436e596ea4b.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIS 16350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3-axis MEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16350_16355.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIS16365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2-axis MEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16360_16365.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIS16485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1-axis MEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16485.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIS16405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-axis MEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16400_16405.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASIMU01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Aerospace Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unkn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.micro-a.net/imu-tmpl.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASIMU02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASIMU03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIM202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensonor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sensonor.com/products/gyro-modules/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIM210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIM300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-G370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://global.epson.com/products_and_drivers/sensing_system/imu/g370/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-G362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.texim-europe.com/product/M-G362PDC1-EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-V340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://global.epson.com/products_and_drivers/sensing_system/imu/v340/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+accelerometer,Magnetometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VectorNav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vectornav.com/docs/default-source/documentation/vn-100-documentation/PB-12-0002.pdf?sfvrsn=9f9fe6b9_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORD 3DM-GX5-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroStrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://s3.amazonaws.com/download.microstrain.com/Datasheets/3DM-GX5-10+Datasheet+(8400-0095)+Rev+H.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mass  incl. baffle (kg)</t>
   </si>
   <si>
@@ -758,9 +927,6 @@
     <t xml:space="preserve">angular momentum of satellite &gt;&gt;0.0004422</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass (kg)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peak Torque (mNm)</t>
   </si>
   <si>
@@ -864,9 +1030,6 @@
   </si>
   <si>
     <t xml:space="preserve">21-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
   </si>
   <si>
     <t xml:space="preserve">25x25x15</t>
@@ -1231,7 +1394,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1243,7 +1406,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1656,7 +1819,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2118,6 +2281,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2133,12 +2300,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2154,10 +2317,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2183,10 +2342,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2203,133 +2358,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -2410,14 +2439,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFD6A5F"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -2471,9 +2500,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -2663,72 +2692,632 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="117" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G24" s="119" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:I8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2874493927126"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="8" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="84.4534412955466"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.0080971659919"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8947368421053"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="85.1578947368421"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H1" s="30"/>
-      <c r="J1" s="120"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="30"/>
-      <c r="J2" s="120"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H3" s="30"/>
-      <c r="J3" s="120"/>
     </row>
     <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="121" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="D4" s="121"/>
       <c r="E4" s="121"/>
       <c r="F4" s="121"/>
       <c r="G4" s="121"/>
       <c r="H4" s="121" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="I4" s="121"/>
-      <c r="J4" s="120"/>
     </row>
     <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="115" t="s">
+      <c r="C5" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="115" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="115" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="115" t="s">
-        <v>246</v>
+      <c r="D5" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="116" t="s">
+        <v>301</v>
       </c>
       <c r="K5" s="30"/>
     </row>
@@ -2737,28 +3326,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="122" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="D6" s="122" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E6" s="122" t="n">
         <v>185</v>
       </c>
       <c r="F6" s="122" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="G6" s="122" t="n">
         <v>0.04</v>
       </c>
       <c r="H6" s="123" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="I6" s="123" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="K6" s="30"/>
     </row>
@@ -2767,13 +3356,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="122" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>1</v>
@@ -2782,13 +3371,13 @@
         <v>0.005</v>
       </c>
       <c r="H7" s="123" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="K7" s="30"/>
     </row>
@@ -2797,13 +3386,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="D8" s="122" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E8" s="122" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F8" s="122" t="n">
         <v>1</v>
@@ -2815,10 +3404,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="123" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="K8" s="30"/>
     </row>
@@ -2827,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="D9" s="122" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="E9" s="122" t="n">
         <v>226</v>
@@ -2842,13 +3431,13 @@
         <v>0.18</v>
       </c>
       <c r="H9" s="123" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,13 +3445,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="D10" s="122" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="E10" s="122" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="F10" s="122" t="n">
         <v>4</v>
@@ -2874,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="123" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2885,13 +3474,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="122" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="D11" s="122" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="E11" s="122" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>7</v>
@@ -2903,10 +3492,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="123" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,13 +3503,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="E12" s="123" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="F12" s="123" t="n">
         <v>12</v>
@@ -2929,13 +3518,13 @@
         <v>0.05</v>
       </c>
       <c r="H12" s="123" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="I12" s="123" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,16 +3532,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="E13" s="123" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="G13" s="123" t="n">
         <v>0.006</v>
@@ -2961,10 +3550,10 @@
         <v>0.8</v>
       </c>
       <c r="I13" s="123" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,16 +3561,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="D14" s="123" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="E14" s="123" t="n">
         <v>0.024</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="G14" s="123" t="n">
         <v>0.00058</v>
@@ -2990,10 +3579,10 @@
         <v>0.625</v>
       </c>
       <c r="I14" s="123" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3590,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="D15" s="123" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="E15" s="122" t="n">
         <v>0.5</v>
@@ -3019,325 +3608,325 @@
         <v>4</v>
       </c>
       <c r="I15" s="122" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="124" t="n">
+      <c r="C16" s="123" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="123" t="n">
         <v>0.137</v>
       </c>
-      <c r="F16" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="G16" s="124" t="n">
+      <c r="F16" s="123" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="123" t="n">
         <v>0.02</v>
       </c>
-      <c r="H16" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" s="125" t="s">
-        <v>293</v>
+      <c r="H16" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>346</v>
+      </c>
+      <c r="J16" s="124" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="124" t="n">
+      <c r="C17" s="123" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="123" t="n">
         <v>0.06</v>
       </c>
-      <c r="F17" s="124" t="n">
+      <c r="F17" s="123" t="n">
         <v>0.23</v>
       </c>
-      <c r="G17" s="124" t="n">
+      <c r="G17" s="123" t="n">
         <v>0.0017</v>
       </c>
-      <c r="H17" s="124" t="n">
+      <c r="H17" s="123" t="n">
         <v>0.15</v>
       </c>
-      <c r="I17" s="124" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" s="125" t="s">
-        <v>297</v>
+      <c r="I17" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="J17" s="124" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="124" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="124" t="n">
+      <c r="C18" s="123" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="123" t="n">
         <v>0.09</v>
       </c>
-      <c r="F18" s="124" t="n">
+      <c r="F18" s="123" t="n">
         <v>2.3</v>
       </c>
-      <c r="G18" s="124" t="n">
+      <c r="G18" s="123" t="n">
         <v>0.0036</v>
       </c>
-      <c r="H18" s="124" t="n">
+      <c r="H18" s="123" t="n">
         <v>0.19</v>
       </c>
-      <c r="I18" s="124" t="s">
-        <v>299</v>
-      </c>
-      <c r="J18" s="125" t="s">
-        <v>297</v>
+      <c r="I18" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="J18" s="124" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="124" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="E19" s="124" t="n">
+      <c r="C19" s="123" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="123" t="n">
         <v>0.15</v>
       </c>
-      <c r="F19" s="124" t="n">
+      <c r="F19" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="124" t="n">
+      <c r="G19" s="123" t="n">
         <v>0.01</v>
       </c>
-      <c r="H19" s="124" t="n">
+      <c r="H19" s="123" t="n">
         <v>0.19</v>
       </c>
-      <c r="I19" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" s="125" t="s">
-        <v>297</v>
+      <c r="I19" s="123" t="s">
+        <v>355</v>
+      </c>
+      <c r="J19" s="124" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="124" t="n">
+      <c r="B20" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" s="123" t="n">
         <v>0.694</v>
       </c>
-      <c r="F20" s="124" t="n">
+      <c r="F20" s="123" t="n">
         <v>0.635</v>
       </c>
-      <c r="G20" s="124" t="n">
+      <c r="G20" s="123" t="n">
         <v>0.0093</v>
       </c>
-      <c r="H20" s="124" t="n">
+      <c r="H20" s="123" t="n">
         <v>3.17</v>
       </c>
-      <c r="I20" s="124" t="s">
-        <v>305</v>
-      </c>
-      <c r="J20" s="125" t="s">
-        <v>306</v>
+      <c r="I20" s="123" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" s="124" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="124" t="s">
-        <v>308</v>
-      </c>
-      <c r="E21" s="124" t="n">
+      <c r="C21" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="123" t="n">
         <v>0.02</v>
       </c>
-      <c r="F21" s="124" t="n">
+      <c r="F21" s="123" t="n">
         <v>0.1</v>
       </c>
-      <c r="G21" s="124" t="n">
+      <c r="G21" s="123" t="n">
         <v>0.002</v>
       </c>
-      <c r="H21" s="124" t="n">
+      <c r="H21" s="123" t="n">
         <v>0.15</v>
       </c>
-      <c r="I21" s="124" t="s">
-        <v>309</v>
-      </c>
-      <c r="J21" s="116" t="s">
-        <v>310</v>
+      <c r="I21" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="J21" s="117" t="s">
+        <v>364</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="M21" s="128" t="s">
-        <v>313</v>
+        <v>366</v>
+      </c>
+      <c r="M21" s="127" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="124" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="124" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="124" t="n">
+      <c r="C22" s="123" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="123" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="123" t="n">
         <v>0.18</v>
       </c>
-      <c r="F22" s="124" t="n">
+      <c r="F22" s="123" t="n">
         <v>1.5</v>
       </c>
-      <c r="G22" s="124" t="n">
+      <c r="G22" s="123" t="n">
         <v>0.019</v>
       </c>
-      <c r="H22" s="124" t="n">
+      <c r="H22" s="123" t="n">
         <v>0.5</v>
       </c>
-      <c r="I22" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="J22" s="125" t="s">
-        <v>317</v>
+      <c r="I22" s="123" t="s">
+        <v>370</v>
+      </c>
+      <c r="J22" s="124" t="s">
+        <v>371</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="M22" s="128" t="s">
-        <v>313</v>
+        <v>372</v>
+      </c>
+      <c r="M22" s="127" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="124" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124" t="n">
+      <c r="C23" s="123" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="123" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123" t="n">
         <v>0.5</v>
       </c>
-      <c r="G23" s="124" t="n">
+      <c r="G23" s="123" t="n">
         <v>0.004</v>
       </c>
-      <c r="H23" s="124" t="n">
+      <c r="H23" s="123" t="n">
         <v>0.6</v>
       </c>
-      <c r="I23" s="124" t="s">
-        <v>321</v>
-      </c>
-      <c r="J23" s="125" t="s">
-        <v>322</v>
+      <c r="I23" s="123" t="s">
+        <v>375</v>
+      </c>
+      <c r="J23" s="124" t="s">
+        <v>376</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="M23" s="128" t="s">
-        <v>313</v>
+        <v>377</v>
+      </c>
+      <c r="M23" s="127" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="124" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>325</v>
-      </c>
-      <c r="E24" s="124" t="n">
+      <c r="C24" s="123" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="123" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="123" t="n">
         <v>0.055</v>
       </c>
-      <c r="F24" s="124" t="n">
+      <c r="F24" s="123" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="124" t="n">
+      <c r="G24" s="123" t="n">
         <v>0.015</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124" t="s">
-        <v>326</v>
-      </c>
-      <c r="J24" s="125" t="s">
-        <v>327</v>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123" t="s">
+        <v>380</v>
+      </c>
+      <c r="J24" s="124" t="s">
+        <v>381</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="M24" s="129" t="s">
-        <v>328</v>
+        <v>297</v>
+      </c>
+      <c r="M24" s="128" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="124" t="n">
+      <c r="C25" s="123" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="123" t="n">
         <v>0.26</v>
       </c>
-      <c r="F25" s="124" t="n">
+      <c r="F25" s="123" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="124" t="n">
+      <c r="G25" s="123" t="n">
         <v>0.04</v>
       </c>
-      <c r="H25" s="124" t="n">
+      <c r="H25" s="123" t="n">
         <v>0.5</v>
       </c>
-      <c r="I25" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="J25" s="125"/>
+      <c r="I25" s="123" t="s">
+        <v>385</v>
+      </c>
+      <c r="J25" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3357,7 +3946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3371,221 +3960,221 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="121" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
       <c r="E10" s="121"/>
       <c r="F10" s="121"/>
       <c r="G10" s="121"/>
-      <c r="H10" s="124"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="115" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="115" t="s">
-        <v>334</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>335</v>
-      </c>
-      <c r="H11" s="115" t="s">
-        <v>246</v>
+      <c r="C11" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="132" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="132" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" s="132" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" s="132" t="s">
-        <v>339</v>
-      </c>
-      <c r="F12" s="132" t="n">
+      <c r="B12" s="122" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="122" t="n">
         <v>1160</v>
       </c>
-      <c r="G12" s="132" t="s">
-        <v>340</v>
-      </c>
-      <c r="H12" s="124" t="s">
-        <v>341</v>
+      <c r="G12" s="122" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="123" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" s="132" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="E13" s="132" t="n">
+      <c r="B13" s="122" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="132" t="n">
+      <c r="F13" s="122" t="n">
         <v>655</v>
       </c>
-      <c r="G13" s="132" t="n">
+      <c r="G13" s="122" t="n">
         <v>280</v>
       </c>
-      <c r="H13" s="133"/>
+      <c r="H13" s="131"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="132" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="132" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="132" t="n">
+      <c r="B14" s="122" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14" s="122" t="n">
         <v>536</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="124"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="132" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="132" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="132" t="s">
+      <c r="B15" s="122" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="122" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="123" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" s="123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="123" t="n">
+        <v>110</v>
+      </c>
+      <c r="G16" s="123" t="n">
         <v>350</v>
       </c>
-      <c r="E15" s="132" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>351</v>
-      </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="124"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="124" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="124" t="n">
+      <c r="H16" s="123" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="123" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="123" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="124" t="n">
+      <c r="F17" s="123" t="n">
         <v>110</v>
       </c>
-      <c r="G16" s="124" t="n">
-        <v>350</v>
-      </c>
-      <c r="H16" s="124" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="124" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>356</v>
-      </c>
-      <c r="E17" s="124" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="124" t="n">
-        <v>110</v>
-      </c>
-      <c r="G17" s="124" t="n">
+      <c r="G17" s="123" t="n">
         <v>900</v>
       </c>
-      <c r="H17" s="124" t="s">
-        <v>357</v>
+      <c r="H17" s="123" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3618,7 +4207,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -3816,11 +4405,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4127,20 +4716,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5013,27 +5602,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
@@ -7330,46 +7919,46 @@
       <formula>1</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="13" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="cellIs" priority="14" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="14" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="16" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="16" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" priority="17" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="17" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="19" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="19" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39">
-    <cfRule type="cellIs" priority="20" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="20" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="22" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7397,8 +7986,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7453,7 +8042,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7471,163 +8060,676 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:S19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>482.33</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1.697</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="117" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F8" s="117" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" s="117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="117" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I12" r:id="rId1" display="https://www.sensonor.com/products/gyro-modules/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C3:I17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.331983805668"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="115" t="s">
+      <c r="C3" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="D3" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="115" t="s">
-        <v>138</v>
+      <c r="E3" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="116" t="n">
+      <c r="C4" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="117" t="n">
         <v>0.185</v>
       </c>
-      <c r="F4" s="116" t="n">
+      <c r="F4" s="117" t="n">
         <v>55</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" s="116" t="s">
-        <v>141</v>
+      <c r="H4" s="117" t="s">
+        <v>197</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="116" t="n">
+      <c r="C5" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="117" t="n">
         <v>0.282</v>
       </c>
-      <c r="F5" s="116" t="n">
+      <c r="F5" s="117" t="n">
         <v>27</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H5" s="117" t="s">
-        <v>145</v>
+      <c r="H5" s="118" t="s">
+        <v>201</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="116" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="116" t="n">
+      <c r="C6" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="117" t="n">
         <v>0.35</v>
       </c>
-      <c r="F6" s="116" t="n">
+      <c r="F6" s="117" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" s="116" t="s">
-        <v>149</v>
+      <c r="H6" s="117" t="s">
+        <v>205</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="116" t="n">
+      <c r="C7" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="117" t="n">
         <v>1.3</v>
       </c>
-      <c r="F7" s="116" t="n">
+      <c r="F7" s="117" t="n">
         <v>40</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H7" s="116" t="s">
-        <v>152</v>
+      <c r="H7" s="117" t="s">
+        <v>208</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="116" t="n">
+      <c r="C8" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="117" t="n">
         <v>0.04</v>
       </c>
-      <c r="F8" s="116" t="n">
+      <c r="F8" s="117" t="n">
         <v>10</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="H8" s="116" t="s">
-        <v>155</v>
+      <c r="H8" s="117" t="s">
+        <v>211</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>154</v>
+        <v>213</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>210</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0.28</v>
@@ -7639,18 +8741,18 @@
         <v>0.65</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.042</v>
@@ -7662,18 +8764,18 @@
         <v>0.65</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0.28</v>
@@ -7685,18 +8787,18 @@
         <v>0.7</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.165</v>
@@ -7705,18 +8807,18 @@
         <v>70</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.19</v>
@@ -7728,18 +8830,18 @@
         <v>0.5</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.025</v>
@@ -7751,18 +8853,18 @@
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.35</v>
@@ -7774,33 +8876,33 @@
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="116" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="118" t="n">
+      <c r="C16" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="119" t="n">
         <v>0.175</v>
       </c>
-      <c r="F16" s="118" t="n">
+      <c r="F16" s="119" t="n">
         <v>60</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7820,568 +8922,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2348178137652"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.1417004048583"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-    </row>
-    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>325</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="116" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="118" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F24" s="116" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G24" s="118" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:I8"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/ScanSat_Template_TB-Power_v0.1.xlsx
+++ b/ScanSat_Template_TB-Power_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Change-log" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="449">
   <si>
     <t xml:space="preserve">Project:</t>
   </si>
@@ -432,21 +432,141 @@
     <t xml:space="preserve">Bazookas</t>
   </si>
   <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass (kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution (nT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Space Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unkn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/nss-magnetometer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroMag3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNI Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sparkfun.com/datasheets/Sensors/MicroMag3%20Data%20Sheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAG-3 Three-Axis Magnetometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpaceQuest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 μV/nT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.spacequest.com/attitude-determination-control/mag-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMC2003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honeywell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,02V/gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.de/product-detail/de/honeywell-aerospace/HMC2003/342-1011-ND/334166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAG-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1 μT/bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.sparkfun.com/datasheets/Sensors/Magneto/MAG3110.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIS3MDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1711 LSB/gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eu.mouser.com/datasheet/2/389/lis3mdl-954956.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMM150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bosch-sensortec.com/bst/products/all_products/bmm150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGM-A-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zarm-technik.de/products/magnetometer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMC5883L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1370LSb/gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn-shop.adafruit.com/datasheets/HMC5883L_3-Axis_Digital_Compass_IC.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMC1043L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2mV/V/gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.farnell.com/datasheets/1802212.pdf?_ga=2.55696107.135361852.1571604725-1845556990.1571604725</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gyroscop</t>
   </si>
   <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass (kg)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bias Stability (°h-1)</t>
   </si>
   <si>
@@ -525,9 +645,6 @@
     <t xml:space="preserve">0.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Unkn.</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.micro-a.net/imu-tmpl.html</t>
   </si>
   <si>
@@ -543,9 +660,6 @@
     <t xml:space="preserve">MASIMU03</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
@@ -772,9 +886,6 @@
   </si>
   <si>
     <t xml:space="preserve">D, mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zarm</t>
   </si>
   <si>
     <t xml:space="preserve">MT2-1 </t>
@@ -1819,7 +1930,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2281,10 +2392,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2292,16 +2399,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2375,10 +2482,9 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -2396,10 +2502,9 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -2417,10 +2522,9 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2500,9 +2604,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -2702,12 +2806,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2719,49 +2823,49 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="120" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
+      <c r="B8" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
     </row>
     <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2</v>
@@ -2782,15 +2886,15 @@
         <v>15</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -2811,15 +2915,15 @@
         <v>18</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>251</v>
+        <v>168</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>288</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -2840,15 +2944,15 @@
         <v>14.5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.2</v>
@@ -2869,18 +2973,18 @@
         <v>9</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.2</v>
@@ -2895,21 +2999,21 @@
         <v>0.196</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0.2</v>
@@ -2924,21 +3028,21 @@
         <v>0.2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.3</v>
@@ -2953,18 +3057,18 @@
         <v>0.196</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.24</v>
@@ -2985,44 +3089,44 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0.19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.007</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0.2</v>
@@ -3043,15 +3147,15 @@
         <v>10.7</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0.5</v>
@@ -3072,15 +3176,15 @@
         <v>11.5</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0.13</v>
@@ -3095,18 +3199,18 @@
         <v>0.046</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1.19</v>
@@ -3121,18 +3225,18 @@
         <v>0.05</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3147,18 +3251,18 @@
         <v>350</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>290</v>
+      <c r="B24" s="116" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>327</v>
       </c>
       <c r="D24" s="119" t="n">
         <v>2</v>
@@ -3166,25 +3270,25 @@
       <c r="E24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="117" t="n">
+      <c r="F24" s="116" t="n">
         <v>0.45</v>
       </c>
       <c r="G24" s="119" t="n">
         <v>0.23</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0.4</v>
@@ -3205,15 +3309,15 @@
         <v>14</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.1</v>
@@ -3228,13 +3332,13 @@
         <v>0.04</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3258,20 +3362,20 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="85.1578947368421"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="86.6599190283401"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3285,39 +3389,39 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="121"/>
+      <c r="C4" s="120" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="E5" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="116" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="116" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="116" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" s="116" t="s">
-        <v>301</v>
+      <c r="F5" s="115" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="115" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" s="115" t="s">
+        <v>338</v>
       </c>
       <c r="K5" s="30"/>
     </row>
@@ -3325,29 +3429,29 @@
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="122" t="n">
+      <c r="C6" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="121" t="n">
         <v>185</v>
       </c>
-      <c r="F6" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="G6" s="122" t="n">
+      <c r="F6" s="121" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" s="121" t="n">
         <v>0.04</v>
       </c>
-      <c r="H6" s="123" t="s">
-        <v>305</v>
-      </c>
-      <c r="I6" s="123" t="s">
-        <v>306</v>
+      <c r="H6" s="122" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>343</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K6" s="30"/>
     </row>
@@ -3355,29 +3459,29 @@
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="122" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="122" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="122" t="n">
+      <c r="C7" s="121" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="122" t="n">
+      <c r="G7" s="121" t="n">
         <v>0.005</v>
       </c>
-      <c r="H7" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="I7" s="123" t="s">
-        <v>311</v>
+      <c r="H7" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>348</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K7" s="30"/>
     </row>
@@ -3385,29 +3489,29 @@
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="122" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="122" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" s="122" t="n">
+      <c r="C8" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="122" t="n">
+      <c r="G8" s="121" t="n">
         <v>0.018</v>
       </c>
-      <c r="H8" s="123" t="n">
+      <c r="H8" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="123" t="s">
-        <v>314</v>
+      <c r="I8" s="122" t="s">
+        <v>351</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K8" s="30"/>
     </row>
@@ -3415,518 +3519,518 @@
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="122" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="122" t="n">
+      <c r="C9" s="121" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="121" t="n">
         <v>226</v>
       </c>
-      <c r="F9" s="122" t="n">
+      <c r="F9" s="121" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="122" t="n">
+      <c r="G9" s="121" t="n">
         <v>0.18</v>
       </c>
-      <c r="H9" s="123" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="123" t="s">
-        <v>317</v>
+      <c r="H9" s="122" t="s">
+        <v>353</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>354</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="122" t="n">
+      <c r="C10" s="121" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="122" t="n">
+      <c r="G10" s="121" t="n">
         <v>0.015</v>
       </c>
-      <c r="H10" s="123" t="n">
+      <c r="H10" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="123" t="s">
-        <v>321</v>
+      <c r="I10" s="122" t="s">
+        <v>358</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="122" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="122" t="n">
+      <c r="C11" s="121" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="121" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="122" t="n">
+      <c r="G11" s="121" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="123" t="n">
+      <c r="H11" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="123" t="s">
-        <v>325</v>
+      <c r="I11" s="122" t="s">
+        <v>362</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="123" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="123" t="n">
+      <c r="C12" s="122" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="122" t="n">
         <v>12</v>
       </c>
-      <c r="G12" s="123" t="n">
+      <c r="G12" s="122" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" s="123" t="s">
-        <v>328</v>
-      </c>
-      <c r="I12" s="123" t="s">
-        <v>329</v>
+      <c r="H12" s="122" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" s="122" t="s">
+        <v>366</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="F13" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="123" t="n">
+      <c r="C13" s="122" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="122" t="n">
         <v>0.006</v>
       </c>
-      <c r="H13" s="123" t="n">
+      <c r="H13" s="122" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" s="123" t="s">
-        <v>333</v>
+      <c r="I13" s="122" t="s">
+        <v>370</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="123" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="E14" s="123" t="n">
+      <c r="C14" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="122" t="n">
         <v>0.024</v>
       </c>
-      <c r="F14" s="123" t="s">
-        <v>337</v>
-      </c>
-      <c r="G14" s="123" t="n">
+      <c r="F14" s="122" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="122" t="n">
         <v>0.00058</v>
       </c>
-      <c r="H14" s="123" t="n">
+      <c r="H14" s="122" t="n">
         <v>0.625</v>
       </c>
-      <c r="I14" s="123" t="s">
-        <v>338</v>
+      <c r="I14" s="122" t="s">
+        <v>375</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="122" t="n">
+      <c r="C15" s="121" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" s="121" t="n">
         <v>0.5</v>
       </c>
-      <c r="F15" s="122" t="n">
+      <c r="F15" s="121" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="122" t="n">
+      <c r="G15" s="121" t="n">
         <v>0.1</v>
       </c>
-      <c r="H15" s="122" t="n">
+      <c r="H15" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="122" t="s">
-        <v>341</v>
+      <c r="I15" s="121" t="s">
+        <v>378</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="123" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="123" t="s">
-        <v>344</v>
-      </c>
-      <c r="E16" s="123" t="n">
+      <c r="C16" s="122" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="122" t="n">
         <v>0.137</v>
       </c>
-      <c r="F16" s="123" t="s">
-        <v>345</v>
-      </c>
-      <c r="G16" s="123" t="n">
+      <c r="F16" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="122" t="n">
         <v>0.02</v>
       </c>
-      <c r="H16" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>346</v>
-      </c>
-      <c r="J16" s="124" t="s">
-        <v>347</v>
+      <c r="H16" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="J16" s="123" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="123" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="123" t="s">
-        <v>349</v>
-      </c>
-      <c r="E17" s="123" t="n">
+      <c r="C17" s="122" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="122" t="n">
         <v>0.06</v>
       </c>
-      <c r="F17" s="123" t="n">
+      <c r="F17" s="122" t="n">
         <v>0.23</v>
       </c>
-      <c r="G17" s="123" t="n">
+      <c r="G17" s="122" t="n">
         <v>0.0017</v>
       </c>
-      <c r="H17" s="123" t="n">
+      <c r="H17" s="122" t="n">
         <v>0.15</v>
       </c>
-      <c r="I17" s="123" t="s">
-        <v>350</v>
-      </c>
-      <c r="J17" s="124" t="s">
-        <v>351</v>
+      <c r="I17" s="122" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" s="123" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>352</v>
-      </c>
-      <c r="D18" s="123" t="s">
-        <v>349</v>
-      </c>
-      <c r="E18" s="123" t="n">
+      <c r="C18" s="122" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="122" t="n">
         <v>0.09</v>
       </c>
-      <c r="F18" s="123" t="n">
+      <c r="F18" s="122" t="n">
         <v>2.3</v>
       </c>
-      <c r="G18" s="123" t="n">
+      <c r="G18" s="122" t="n">
         <v>0.0036</v>
       </c>
-      <c r="H18" s="123" t="n">
+      <c r="H18" s="122" t="n">
         <v>0.19</v>
       </c>
-      <c r="I18" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="J18" s="124" t="s">
-        <v>351</v>
+      <c r="I18" s="122" t="s">
+        <v>390</v>
+      </c>
+      <c r="J18" s="123" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="123" t="s">
-        <v>354</v>
-      </c>
-      <c r="D19" s="123" t="s">
-        <v>349</v>
-      </c>
-      <c r="E19" s="123" t="n">
+      <c r="C19" s="122" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="122" t="n">
         <v>0.15</v>
       </c>
-      <c r="F19" s="123" t="n">
+      <c r="F19" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="123" t="n">
+      <c r="G19" s="122" t="n">
         <v>0.01</v>
       </c>
-      <c r="H19" s="123" t="n">
+      <c r="H19" s="122" t="n">
         <v>0.19</v>
       </c>
-      <c r="I19" s="123" t="s">
-        <v>355</v>
-      </c>
-      <c r="J19" s="124" t="s">
-        <v>351</v>
+      <c r="I19" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="J19" s="123" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" s="126" t="s">
-        <v>357</v>
-      </c>
-      <c r="D20" s="123" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="123" t="n">
+      <c r="B20" s="124" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="125" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="122" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="122" t="n">
         <v>0.694</v>
       </c>
-      <c r="F20" s="123" t="n">
+      <c r="F20" s="122" t="n">
         <v>0.635</v>
       </c>
-      <c r="G20" s="123" t="n">
+      <c r="G20" s="122" t="n">
         <v>0.0093</v>
       </c>
-      <c r="H20" s="123" t="n">
+      <c r="H20" s="122" t="n">
         <v>3.17</v>
       </c>
-      <c r="I20" s="123" t="s">
-        <v>359</v>
-      </c>
-      <c r="J20" s="124" t="s">
-        <v>360</v>
+      <c r="I20" s="122" t="s">
+        <v>396</v>
+      </c>
+      <c r="J20" s="123" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="123" t="s">
-        <v>361</v>
-      </c>
-      <c r="D21" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="E21" s="123" t="n">
+      <c r="C21" s="122" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="122" t="n">
         <v>0.02</v>
       </c>
-      <c r="F21" s="123" t="n">
+      <c r="F21" s="122" t="n">
         <v>0.1</v>
       </c>
-      <c r="G21" s="123" t="n">
+      <c r="G21" s="122" t="n">
         <v>0.002</v>
       </c>
-      <c r="H21" s="123" t="n">
+      <c r="H21" s="122" t="n">
         <v>0.15</v>
       </c>
-      <c r="I21" s="123" t="s">
-        <v>363</v>
-      </c>
-      <c r="J21" s="117" t="s">
-        <v>364</v>
+      <c r="I21" s="122" t="s">
+        <v>400</v>
+      </c>
+      <c r="J21" s="116" t="s">
+        <v>401</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="M21" s="127" t="s">
-        <v>367</v>
+        <v>403</v>
+      </c>
+      <c r="M21" s="126" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="123" t="s">
-        <v>368</v>
-      </c>
-      <c r="D22" s="123" t="s">
-        <v>369</v>
-      </c>
-      <c r="E22" s="123" t="n">
+      <c r="C22" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>406</v>
+      </c>
+      <c r="E22" s="122" t="n">
         <v>0.18</v>
       </c>
-      <c r="F22" s="123" t="n">
+      <c r="F22" s="122" t="n">
         <v>1.5</v>
       </c>
-      <c r="G22" s="123" t="n">
+      <c r="G22" s="122" t="n">
         <v>0.019</v>
       </c>
-      <c r="H22" s="123" t="n">
+      <c r="H22" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="I22" s="123" t="s">
-        <v>370</v>
-      </c>
-      <c r="J22" s="124" t="s">
-        <v>371</v>
+      <c r="I22" s="122" t="s">
+        <v>407</v>
+      </c>
+      <c r="J22" s="123" t="s">
+        <v>408</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M22" s="127" t="s">
-        <v>367</v>
+        <v>409</v>
+      </c>
+      <c r="M22" s="126" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="123" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="123" t="s">
-        <v>374</v>
-      </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123" t="n">
+      <c r="C23" s="122" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="G23" s="123" t="n">
+      <c r="G23" s="122" t="n">
         <v>0.004</v>
       </c>
-      <c r="H23" s="123" t="n">
+      <c r="H23" s="122" t="n">
         <v>0.6</v>
       </c>
-      <c r="I23" s="123" t="s">
-        <v>375</v>
-      </c>
-      <c r="J23" s="124" t="s">
-        <v>376</v>
+      <c r="I23" s="122" t="s">
+        <v>412</v>
+      </c>
+      <c r="J23" s="123" t="s">
+        <v>413</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="M23" s="127" t="s">
-        <v>367</v>
+        <v>414</v>
+      </c>
+      <c r="M23" s="126" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="123" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="123" t="s">
-        <v>379</v>
-      </c>
-      <c r="E24" s="123" t="n">
+      <c r="C24" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" s="122" t="n">
         <v>0.055</v>
       </c>
-      <c r="F24" s="123" t="n">
+      <c r="F24" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="123" t="n">
+      <c r="G24" s="122" t="n">
         <v>0.015</v>
       </c>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123" t="s">
-        <v>380</v>
-      </c>
-      <c r="J24" s="124" t="s">
-        <v>381</v>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122" t="s">
+        <v>417</v>
+      </c>
+      <c r="J24" s="123" t="s">
+        <v>418</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="M24" s="128" t="s">
-        <v>382</v>
+        <v>334</v>
+      </c>
+      <c r="M24" s="127" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="123" t="s">
-        <v>383</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>384</v>
-      </c>
-      <c r="E25" s="123" t="n">
+      <c r="C25" s="122" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="122" t="n">
         <v>0.26</v>
       </c>
-      <c r="F25" s="123" t="n">
+      <c r="F25" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="123" t="n">
+      <c r="G25" s="122" t="n">
         <v>0.04</v>
       </c>
-      <c r="H25" s="123" t="n">
+      <c r="H25" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="I25" s="123" t="s">
-        <v>385</v>
-      </c>
-      <c r="J25" s="124"/>
+      <c r="I25" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="J25" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3960,221 +4064,221 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="121" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
+      <c r="B10" s="120" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="122"/>
     </row>
     <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="116" t="s">
-        <v>388</v>
-      </c>
-      <c r="G11" s="116" t="s">
-        <v>389</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>301</v>
+      <c r="D11" s="115" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>426</v>
+      </c>
+      <c r="H11" s="115" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="122" t="s">
-        <v>390</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="122" t="s">
-        <v>392</v>
-      </c>
-      <c r="E12" s="122" t="s">
-        <v>393</v>
-      </c>
-      <c r="F12" s="122" t="n">
+      <c r="B12" s="121" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="121" t="n">
         <v>1160</v>
       </c>
-      <c r="G12" s="122" t="s">
-        <v>394</v>
-      </c>
-      <c r="H12" s="123" t="s">
-        <v>395</v>
+      <c r="G12" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="121" t="n">
+        <v>655</v>
+      </c>
+      <c r="G13" s="121" t="n">
+        <v>280</v>
+      </c>
+      <c r="H13" s="130"/>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="121" t="n">
+        <v>536</v>
+      </c>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="121" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" s="121" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="122" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>445</v>
+      </c>
+      <c r="E16" s="122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="122" t="n">
+        <v>110</v>
+      </c>
+      <c r="G16" s="122" t="n">
+        <v>350</v>
+      </c>
+      <c r="H16" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="122" t="s">
-        <v>397</v>
-      </c>
-      <c r="D13" s="122" t="s">
-        <v>398</v>
-      </c>
-      <c r="E13" s="122" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="122" t="s">
+        <v>446</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="122" t="n">
-        <v>655</v>
-      </c>
-      <c r="G13" s="122" t="n">
-        <v>280</v>
-      </c>
-      <c r="H13" s="131"/>
-    </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="122" t="s">
-        <v>400</v>
-      </c>
-      <c r="D14" s="122" t="s">
-        <v>401</v>
-      </c>
-      <c r="E14" s="122" t="s">
-        <v>393</v>
-      </c>
-      <c r="F14" s="122" t="n">
-        <v>536</v>
-      </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-    </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="122" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" s="122" t="s">
-        <v>403</v>
-      </c>
-      <c r="D15" s="122" t="s">
-        <v>404</v>
-      </c>
-      <c r="E15" s="122" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" s="122" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="123" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="123" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="123" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="123" t="n">
+      <c r="F17" s="122" t="n">
         <v>110</v>
       </c>
-      <c r="G16" s="123" t="n">
-        <v>350</v>
-      </c>
-      <c r="H16" s="123" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="123" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" s="123" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" s="123" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" s="123" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="123" t="n">
-        <v>110</v>
-      </c>
-      <c r="G17" s="123" t="n">
+      <c r="G17" s="122" t="n">
         <v>900</v>
       </c>
-      <c r="H17" s="123" t="s">
-        <v>411</v>
+      <c r="H17" s="122" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4207,7 +4311,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -4405,11 +4509,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4716,20 +4820,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5602,27 +5706,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
@@ -7986,7 +8090,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -8034,17 +8138,273 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B4:J14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9028340080972"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="115"/>
+    </row>
+    <row r="5" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="116" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="E5" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="116" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="116" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="116" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="116" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.8E-005</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2.5E-005</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G14" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8062,64 +8422,64 @@
   </sheetPr>
   <dimension ref="A2:S19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-    </row>
-    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="116" t="s">
+      <c r="C3" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="D3" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>140</v>
+      <c r="F3" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>180</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>145</v>
+        <v>183</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>185</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.012</v>
@@ -8134,27 +8494,27 @@
         <v>0.235</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>482.33</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>149</v>
+        <v>182</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>189</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.016</v>
@@ -8169,21 +8529,21 @@
         <v>0.165</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>152</v>
+        <v>182</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>192</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.016</v>
@@ -8198,7 +8558,7 @@
         <v>0.25</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>633</v>
@@ -8206,16 +8566,16 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>195</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.25</v>
@@ -8227,7 +8587,7 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>1.697</v>
@@ -8235,123 +8595,123 @@
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="117" t="n">
+        <v>182</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="116" t="n">
         <v>0.016</v>
       </c>
-      <c r="F8" s="117" t="n">
+      <c r="F8" s="116" t="n">
         <v>25</v>
       </c>
-      <c r="G8" s="117" t="n">
+      <c r="G8" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="117" t="n">
+      <c r="H8" s="116" t="n">
         <v>0.35</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="117" t="n">
+      <c r="B9" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="116" t="n">
         <v>0.6</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="117" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="117" t="n">
+      <c r="B10" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="116" t="n">
         <v>0.6</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="117" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="117" t="n">
+      <c r="B11" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="116" t="n">
         <v>1.3</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>158</v>
+        <v>211</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.055</v>
@@ -8366,18 +8726,18 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>158</v>
+        <v>211</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.052</v>
@@ -8392,18 +8752,18 @@
         <v>1.5</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>158</v>
+        <v>211</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.055</v>
@@ -8418,18 +8778,18 @@
         <v>1.5</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>158</v>
+        <v>216</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.01</v>
@@ -8444,18 +8804,18 @@
         <v>0.05</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="117" t="s">
-        <v>180</v>
+      <c r="B16" s="116" t="s">
+        <v>218</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>158</v>
+        <v>216</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.01</v>
@@ -8470,18 +8830,18 @@
         <v>0.05</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>158</v>
+        <v>216</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.01</v>
@@ -8496,21 +8856,21 @@
         <v>0.05</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>158</v>
+        <v>224</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.015</v>
@@ -8522,21 +8882,21 @@
         <v>0.2</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>158</v>
+        <v>227</v>
+      </c>
+      <c r="D19" s="116" t="s">
+        <v>198</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.016</v>
@@ -8548,7 +8908,7 @@
         <v>0.3</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8584,152 +8944,152 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>194</v>
+      <c r="E3" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="117" t="n">
+      <c r="C4" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="116" t="n">
         <v>0.185</v>
       </c>
-      <c r="F4" s="117" t="n">
+      <c r="F4" s="116" t="n">
         <v>55</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" s="117" t="s">
-        <v>197</v>
+      <c r="H4" s="116" t="s">
+        <v>235</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="117" t="n">
+      <c r="C5" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="116" t="n">
         <v>0.282</v>
       </c>
-      <c r="F5" s="117" t="n">
+      <c r="F5" s="116" t="n">
         <v>27</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="H5" s="118" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="117" t="n">
+      <c r="C6" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="116" t="n">
         <v>0.35</v>
       </c>
-      <c r="F6" s="117" t="n">
+      <c r="F6" s="116" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" s="117" t="s">
-        <v>205</v>
+      <c r="H6" s="116" t="s">
+        <v>243</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="117" t="n">
+      <c r="C7" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="116" t="n">
         <v>1.3</v>
       </c>
-      <c r="F7" s="117" t="n">
+      <c r="F7" s="116" t="n">
         <v>40</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H7" s="117" t="s">
-        <v>208</v>
+      <c r="H7" s="116" t="s">
+        <v>246</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="117" t="n">
+      <c r="C8" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="116" t="n">
         <v>0.04</v>
       </c>
-      <c r="F8" s="117" t="n">
+      <c r="F8" s="116" t="n">
         <v>10</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="H8" s="117" t="s">
-        <v>211</v>
+      <c r="H8" s="116" t="s">
+        <v>249</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>210</v>
+        <v>251</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>248</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0.28</v>
@@ -8741,18 +9101,18 @@
         <v>0.65</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.042</v>
@@ -8764,18 +9124,18 @@
         <v>0.65</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0.28</v>
@@ -8787,18 +9147,18 @@
         <v>0.7</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.165</v>
@@ -8807,18 +9167,18 @@
         <v>70</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.19</v>
@@ -8830,18 +9190,18 @@
         <v>0.5</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.025</v>
@@ -8853,18 +9213,18 @@
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.35</v>
@@ -8876,18 +9236,18 @@
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="117" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>237</v>
+      <c r="C16" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>275</v>
       </c>
       <c r="E16" s="119" t="n">
         <v>0.175</v>
@@ -8899,10 +9259,10 @@
         <v>0.3</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ScanSat_Template_TB-Power_v0.1.xlsx
+++ b/ScanSat_Template_TB-Power_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Change-log" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,12 +14,15 @@
     <sheet name="Power Consumption - Components" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Power Modes" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="BoH" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Magnetometer" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Gyro" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Startrakers" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rods" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="RW" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Propulsion" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sun sensors" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Magnetometer" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="GPS Receivers" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Horizon Sensors" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Gyro" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Startrakers" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Rods" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="RW" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Propulsion" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="569">
   <si>
     <t xml:space="preserve">Project:</t>
   </si>
@@ -432,6 +435,9 @@
     <t xml:space="preserve">Bazookas</t>
   </si>
   <si>
+    <t xml:space="preserve">Sun sensor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product</t>
   </si>
   <si>
@@ -441,6 +447,168 @@
     <t xml:space="preserve">Mass (kg)</t>
   </si>
   <si>
+    <t xml:space="preserve">Accuracy (°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensions (mm^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine (digital) Sun Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Space Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33  x 11 x 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/digital-fine-sun-sensor/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unkn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,7x12,7x9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.spacemicro.com/assets/datasheets/guidance-and-nav/CSS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiSon64-ET-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens Research &amp; Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49x49x17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/bison64-et-b/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiSon64-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/bison64-b/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiSon74-ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/bison64-et/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS-411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinclair Interplanetary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34x32x21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://78462f86-a-744dbb28-s-sites.googlegroups.com/a/sinclairinterplanetary.com/www/digitalsunsensors/sunsensor2011a.pdf?attachauth=ANoY7cpvPKSZJ7G4-ZTQBzmzPW18d5Nj_RYW4cQ3GgMJ-yFIGe7fe4SjPGAX4Lli2dzw49SyFABij8fUHRLlgGdqMhbq_fWZO1VpTqdZXeKjLJbA1viOt6S6KGDgxyR2n4oWR77aInrgZnjH6REgHacgz399J4scHhU8OFRRMc2613ZKbxXdzQqzYpAJJj3R-kxuvdKBOfK1sjw5kWICA8Pvl3-fcoEy_VFP9SEesnmK5jeHENyILIVtGzAeXh8131vIBGb-Z2by&amp;attredirects=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NanoAvionics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://satsearch.co/products/nanoavionics-digital-sun-sensor-dss1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI-KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland aerospace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x19x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/mai-ke-sun-sensor/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano-SSOC-A60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolarMEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27x14x5,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.solar-mems.com/wp-content/uploads/2017/01/nanoSSOC-A60-Brochure.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoSSOC-D60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43x14x5,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/wp-content/uploads/2016/06/nanoSSOC-D60-Technical-Specifications.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSS CubeSat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/wp-content/uploads/2016/06/NSS-Cubesat-Sun-Sensor.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSOC-A60 2-Axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40x30x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/wp-content/uploads/2016/06/SSOCA60-Brochure-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSOC-D60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x30x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.solar-mems.com/wp-content/uploads/2017/01/SSOCD60-Brochure.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetometer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Resolution (nT)</t>
   </si>
   <si>
@@ -450,13 +618,7 @@
     <t xml:space="preserve">Sensitivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnetometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Space Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unkn.</t>
+    <t xml:space="preserve">96x43x17</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.cubesatshop.com/product/nss-magnetometer/</t>
@@ -471,6 +633,9 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
+    <t xml:space="preserve">25x25x19</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.sparkfun.com/datasheets/Sensors/MicroMag3%20Data%20Sheet.pdf</t>
   </si>
   <si>
@@ -480,12 +645,12 @@
     <t xml:space="preserve">SpaceQuest</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">100 μV/nT</t>
   </si>
   <si>
+    <t xml:space="preserve">35x32x82</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.spacequest.com/attitude-determination-control/mag-3</t>
   </si>
   <si>
@@ -498,9 +663,15 @@
     <t xml:space="preserve">1,02V/gauss</t>
   </si>
   <si>
+    <t xml:space="preserve">27x19x11</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.digikey.de/product-detail/de/honeywell-aerospace/HMC2003/342-1011-ND/334166</t>
   </si>
   <si>
+    <t xml:space="preserve">chip</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAG-3</t>
   </si>
   <si>
@@ -510,6 +681,9 @@
     <t xml:space="preserve">0,1 μT/bit</t>
   </si>
   <si>
+    <t xml:space="preserve">2x2x1</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://cdn.sparkfun.com/datasheets/Sensors/Magneto/MAG3110.pdf</t>
   </si>
   <si>
@@ -531,6 +705,9 @@
     <t xml:space="preserve">bosch</t>
   </si>
   <si>
+    <t xml:space="preserve">1,56x1,56x0,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.bosch-sensortec.com/bst/products/all_products/bmm150</t>
   </si>
   <si>
@@ -540,6 +717,9 @@
     <t xml:space="preserve">Zarm</t>
   </si>
   <si>
+    <t xml:space="preserve">100x82x34</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.zarm-technik.de/products/magnetometer/</t>
   </si>
   <si>
@@ -549,6 +729,9 @@
     <t xml:space="preserve">1370LSb/gauss</t>
   </si>
   <si>
+    <t xml:space="preserve">3x3x0,9</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://cdn-shop.adafruit.com/datasheets/HMC5883L_3-Axis_Digital_Compass_IC.pdf</t>
   </si>
   <si>
@@ -558,9 +741,165 @@
     <t xml:space="preserve">1.2mV/V/gauss</t>
   </si>
   <si>
+    <t xml:space="preserve">3,5x3x1,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.farnell.com/datasheets/1802212.pdf?_ga=2.55696107.135361852.1571604725-1845556990.1571604725</t>
   </si>
   <si>
+    <t xml:space="preserve">Troyka Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amperka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,000146gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,4x25,4x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amperka.com/products/troyka-magnetometer-compass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS receivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR-05U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surrey Satellite Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 x 65 x 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sstl.co.uk/getattachment/Media-Hub/Featured/Navigation/SGR-05P-Datasheet-2018-V2-Read-Only.pdf?lang=en-GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRG-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144 x 76 x 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sstl.co.uk/getattachment/Media-Hub/Featured/Navigation/SGR-07-Datasheet-2018-V2-Read-Only.pdf?lang=en-GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160 x 180 x 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sstl.co.uk/getattachment/Media-Hub/Featured/Navigation/SGR-Axio-Datasheet-2018-V2-Read-Only.pdf?lang=en-GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEM615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novatel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 × 71 × 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.novatel.com/assets/Documents/Papers/OEM615.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piNAV-NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkyFox Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67x40x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.skyfoxlabs.com/pdf/piNAV-NG_Datasheet_rev_F.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRG-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130x130x60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.topconpositioning.com/de/gnss-receivers-agriculture/gnss-rooftop-receivers/sgr-1#panel-product-specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip avionics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30x91x63,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.trig-avionics.com/library/Trig%20-%20TN72%20-%20Sales%20Brochure%20-%20US%20-%20LR%20-%20no%20crop%20-%20March%202017.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EyeStar-S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pumpkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15x26x55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pumpkininc.com/space/datasheet/EyeStar-S3%20Satellite%20Simplex%20v3.2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EyeStar-D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1 x11.9x2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pumpkininc.com/space/datasheet/EyeStar-D2%20Satellite%20Duplex%20v3.2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizon sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI-SES Static Earth Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adcole Maryland Aerospace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,3 x 31,8 x 31,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/mai-ses-ir-earth-sensor/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Digital HCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,4x35x31,75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://servo.com/index_htm_files/minidigital_hci.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gyroscop</t>
   </si>
   <si>
@@ -591,6 +930,9 @@
     <t xml:space="preserve">-4-axis MEMS</t>
   </si>
   <si>
+    <t xml:space="preserve">24x33x11</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16334.pdf</t>
   </si>
   <si>
@@ -603,6 +945,9 @@
     <t xml:space="preserve">-3-axis MEMS</t>
   </si>
   <si>
+    <t xml:space="preserve">23,5x21x31</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16350_16355.pdf</t>
   </si>
   <si>
@@ -621,6 +966,9 @@
     <t xml:space="preserve">-1-axis MEMS</t>
   </si>
   <si>
+    <t xml:space="preserve">44,2x47,2x14</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.analog.com/media/en/technical-documentation/data-sheets/ADIS16485.pdf</t>
   </si>
   <si>
@@ -645,6 +993,9 @@
     <t xml:space="preserve">0.6</t>
   </si>
   <si>
+    <t xml:space="preserve">63,5x55,88x35,56</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.micro-a.net/imu-tmpl.html</t>
   </si>
   <si>
@@ -654,7 +1005,7 @@
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7</t>
+    <t xml:space="preserve">50x50x38</t>
   </si>
   <si>
     <t xml:space="preserve">MASIMU03</t>
@@ -663,18 +1014,27 @@
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
+    <t xml:space="preserve">100x75x38</t>
+  </si>
+  <si>
     <t xml:space="preserve">STIM202</t>
   </si>
   <si>
     <t xml:space="preserve">Sensonor</t>
   </si>
   <si>
+    <t xml:space="preserve">35x38x20</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.sensonor.com/products/gyro-modules/</t>
   </si>
   <si>
     <t xml:space="preserve">STIM210</t>
   </si>
   <si>
+    <t xml:space="preserve">44,8x38,6x21,15</t>
+  </si>
+  <si>
     <t xml:space="preserve">STIM300</t>
   </si>
   <si>
@@ -684,18 +1044,27 @@
     <t xml:space="preserve">Epson</t>
   </si>
   <si>
+    <t xml:space="preserve">24 x 24 x 10 </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://global.epson.com/products_and_drivers/sensing_system/imu/g370/</t>
   </si>
   <si>
     <t xml:space="preserve">M-G362</t>
   </si>
   <si>
+    <t xml:space="preserve">24x24x10</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.texim-europe.com/product/M-G362PDC1-EPS</t>
   </si>
   <si>
     <t xml:space="preserve">M-V340</t>
   </si>
   <si>
+    <t xml:space="preserve">10 x 12 x 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://global.epson.com/products_and_drivers/sensing_system/imu/v340/</t>
   </si>
   <si>
@@ -708,6 +1077,9 @@
     <t xml:space="preserve">VectorNav</t>
   </si>
   <si>
+    <t xml:space="preserve">36 x 33 x 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.vectornav.com/docs/default-source/documentation/vn-100-documentation/PB-12-0002.pdf?sfvrsn=9f9fe6b9_18</t>
   </si>
   <si>
@@ -717,6 +1089,9 @@
     <t xml:space="preserve">MicroStrain</t>
   </si>
   <si>
+    <t xml:space="preserve">36x35,6x11,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://s3.amazonaws.com/download.microstrain.com/Datasheets/3DM-GX5-10+Datasheet+(8400-0095)+Rev+H.pdf</t>
   </si>
   <si>
@@ -726,12 +1101,6 @@
     <t xml:space="preserve">Accuracy (arcsec)</t>
   </si>
   <si>
-    <t xml:space="preserve">Power (W)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimensions (mm^3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ST-16RT2</t>
   </si>
   <si>
@@ -1051,12 +1420,6 @@
   </si>
   <si>
     <t xml:space="preserve">RW-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinclair Interplanetary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">1.8</t>
@@ -2391,16 +2754,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2604,9 +2967,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -2796,554 +3159,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="117" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-    </row>
-    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C4" s="117" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D4" s="117" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F4" s="117" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="G4" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H4" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="H9" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="C5" s="117" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D5" s="117" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="117" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="F5" s="117" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G5" s="117" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>325</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F24" s="116" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G24" s="119" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3360,9 +3264,1493 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:S19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>482.33</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1.697</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="117" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F8" s="117" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" s="117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="117" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="117" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="117" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="117" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="117" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" display="https://www.sensonor.com/products/gyro-modules/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C3:I17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="117" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F4" s="117" t="n">
+        <v>55</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="117" t="s">
+        <v>357</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="117" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="117" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F5" s="117" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="118" t="s">
+        <v>361</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="117" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="117" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F6" s="117" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="117" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="117" t="s">
+        <v>368</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="117" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="117" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H8" s="117" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" s="119" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F16" s="119" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="115" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="117" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="D24" s="119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="117" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G24" s="119" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:I8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3370,12 +4758,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="8" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="86.6599190283401"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="88.1578947368421"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3390,38 +4778,38 @@
     </row>
     <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="120" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="D4" s="120"/>
       <c r="E4" s="120"/>
       <c r="F4" s="120"/>
       <c r="G4" s="120"/>
       <c r="H4" s="120" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="I4" s="120"/>
     </row>
     <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="115" t="s">
+      <c r="C5" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="D5" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="115" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="H5" s="115" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" s="115" t="s">
-        <v>338</v>
+      <c r="E5" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="116" t="s">
+        <v>460</v>
       </c>
       <c r="K5" s="30"/>
     </row>
@@ -3430,28 +4818,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="D6" s="121" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="E6" s="121" t="n">
         <v>185</v>
       </c>
       <c r="F6" s="121" t="s">
-        <v>341</v>
+        <v>154</v>
       </c>
       <c r="G6" s="121" t="n">
         <v>0.04</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="I6" s="122" t="s">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="K6" s="30"/>
     </row>
@@ -3460,13 +4848,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="D7" s="121" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="E7" s="121" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="F7" s="121" t="n">
         <v>1</v>
@@ -3475,13 +4863,13 @@
         <v>0.005</v>
       </c>
       <c r="H7" s="122" t="s">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="I7" s="122" t="s">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="K7" s="30"/>
     </row>
@@ -3490,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>349</v>
+        <v>469</v>
       </c>
       <c r="D8" s="121" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="E8" s="121" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="F8" s="121" t="n">
         <v>1</v>
@@ -3508,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="K8" s="30"/>
     </row>
@@ -3520,10 +4908,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="E9" s="121" t="n">
         <v>226</v>
@@ -3535,13 +4923,13 @@
         <v>0.18</v>
       </c>
       <c r="H9" s="122" t="s">
-        <v>353</v>
+        <v>473</v>
       </c>
       <c r="I9" s="122" t="s">
-        <v>354</v>
+        <v>474</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3549,13 +4937,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="F10" s="121" t="n">
         <v>4</v>
@@ -3567,10 +4955,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="122" t="s">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3578,13 +4966,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="F11" s="121" t="n">
         <v>7</v>
@@ -3596,10 +4984,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="122" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,13 +4995,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="E12" s="122" t="s">
-        <v>364</v>
+        <v>484</v>
       </c>
       <c r="F12" s="122" t="n">
         <v>12</v>
@@ -3622,13 +5010,13 @@
         <v>0.05</v>
       </c>
       <c r="H12" s="122" t="s">
-        <v>365</v>
+        <v>485</v>
       </c>
       <c r="I12" s="122" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>367</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,16 +5024,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>368</v>
+        <v>488</v>
       </c>
       <c r="D13" s="122" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="E13" s="122" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
       <c r="F13" s="122" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G13" s="122" t="n">
         <v>0.006</v>
@@ -3654,10 +5042,10 @@
         <v>0.8</v>
       </c>
       <c r="I13" s="122" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,16 +5053,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="122" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="E14" s="122" t="n">
         <v>0.024</v>
       </c>
       <c r="F14" s="122" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="G14" s="122" t="n">
         <v>0.00058</v>
@@ -3683,10 +5071,10 @@
         <v>0.625</v>
       </c>
       <c r="I14" s="122" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,10 +5082,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="E15" s="121" t="n">
         <v>0.5</v>
@@ -3712,10 +5100,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="121" t="s">
-        <v>378</v>
+        <v>498</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>379</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,16 +5111,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
       <c r="E16" s="122" t="n">
         <v>0.137</v>
       </c>
       <c r="F16" s="122" t="s">
-        <v>382</v>
+        <v>502</v>
       </c>
       <c r="G16" s="122" t="n">
         <v>0.02</v>
@@ -3741,10 +5129,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="122" t="s">
-        <v>383</v>
+        <v>503</v>
       </c>
       <c r="J16" s="123" t="s">
-        <v>384</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,10 +5140,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>385</v>
+        <v>505</v>
       </c>
       <c r="D17" s="122" t="s">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="E17" s="122" t="n">
         <v>0.06</v>
@@ -3770,10 +5158,10 @@
         <v>0.15</v>
       </c>
       <c r="I17" s="122" t="s">
-        <v>387</v>
+        <v>507</v>
       </c>
       <c r="J17" s="123" t="s">
-        <v>388</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,10 +5169,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>389</v>
+        <v>509</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="E18" s="122" t="n">
         <v>0.09</v>
@@ -3799,10 +5187,10 @@
         <v>0.19</v>
       </c>
       <c r="I18" s="122" t="s">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="J18" s="123" t="s">
-        <v>388</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,10 +5198,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="122" t="s">
-        <v>391</v>
+        <v>511</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="E19" s="122" t="n">
         <v>0.15</v>
@@ -3828,10 +5216,10 @@
         <v>0.19</v>
       </c>
       <c r="I19" s="122" t="s">
-        <v>392</v>
+        <v>512</v>
       </c>
       <c r="J19" s="123" t="s">
-        <v>388</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,13 +5227,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>393</v>
+        <v>513</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>394</v>
+        <v>514</v>
       </c>
       <c r="D20" s="122" t="s">
-        <v>395</v>
+        <v>515</v>
       </c>
       <c r="E20" s="122" t="n">
         <v>0.694</v>
@@ -3860,10 +5248,10 @@
         <v>3.17</v>
       </c>
       <c r="I20" s="122" t="s">
-        <v>396</v>
+        <v>516</v>
       </c>
       <c r="J20" s="123" t="s">
-        <v>397</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,10 +5259,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="122" t="s">
-        <v>398</v>
+        <v>518</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>399</v>
+        <v>519</v>
       </c>
       <c r="E21" s="122" t="n">
         <v>0.02</v>
@@ -3889,19 +5277,19 @@
         <v>0.15</v>
       </c>
       <c r="I21" s="122" t="s">
-        <v>400</v>
-      </c>
-      <c r="J21" s="116" t="s">
-        <v>401</v>
+        <v>520</v>
+      </c>
+      <c r="J21" s="117" t="s">
+        <v>521</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>402</v>
+        <v>522</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>403</v>
+        <v>523</v>
       </c>
       <c r="M21" s="126" t="s">
-        <v>404</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +5297,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="122" t="s">
-        <v>405</v>
+        <v>525</v>
       </c>
       <c r="D22" s="122" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="E22" s="122" t="n">
         <v>0.18</v>
@@ -3927,16 +5315,16 @@
         <v>0.5</v>
       </c>
       <c r="I22" s="122" t="s">
-        <v>407</v>
+        <v>527</v>
       </c>
       <c r="J22" s="123" t="s">
-        <v>408</v>
+        <v>528</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="M22" s="126" t="s">
-        <v>404</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,10 +5332,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="122" t="s">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="E23" s="122"/>
       <c r="F23" s="122" t="n">
@@ -3960,16 +5348,16 @@
         <v>0.6</v>
       </c>
       <c r="I23" s="122" t="s">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="J23" s="123" t="s">
-        <v>413</v>
+        <v>533</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>414</v>
+        <v>534</v>
       </c>
       <c r="M23" s="126" t="s">
-        <v>404</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,10 +5365,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="122" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>416</v>
+        <v>536</v>
       </c>
       <c r="E24" s="122" t="n">
         <v>0.055</v>
@@ -3993,16 +5381,16 @@
       </c>
       <c r="H24" s="122"/>
       <c r="I24" s="122" t="s">
-        <v>417</v>
+        <v>537</v>
       </c>
       <c r="J24" s="123" t="s">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="M24" s="127" t="s">
-        <v>419</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,10 +5398,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="122" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="D25" s="122" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="E25" s="122" t="n">
         <v>0.26</v>
@@ -4028,7 +5416,7 @@
         <v>0.5</v>
       </c>
       <c r="I25" s="122" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
       <c r="J25" s="123"/>
     </row>
@@ -4050,7 +5438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4064,7 +5452,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3562753036437"/>
@@ -4088,40 +5476,40 @@
       <c r="G2" s="129"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="120" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
@@ -4131,60 +5519,60 @@
       <c r="H10" s="122"/>
     </row>
     <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="115" t="s">
-        <v>424</v>
-      </c>
-      <c r="E11" s="115" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="115" t="s">
-        <v>425</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" s="115" t="s">
-        <v>338</v>
+      <c r="C11" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>544</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>545</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="121" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>428</v>
+        <v>548</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="F12" s="121" t="n">
         <v>1160</v>
       </c>
       <c r="G12" s="121" t="s">
-        <v>431</v>
+        <v>551</v>
       </c>
       <c r="H12" s="122" t="s">
-        <v>432</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="121" t="s">
-        <v>433</v>
+        <v>553</v>
       </c>
       <c r="C13" s="121" t="s">
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="D13" s="121" t="s">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="E13" s="121" t="n">
         <v>2</v>
@@ -4199,16 +5587,16 @@
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="121" t="s">
-        <v>436</v>
+        <v>556</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>437</v>
+        <v>557</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>438</v>
+        <v>558</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="F14" s="121" t="n">
         <v>536</v>
@@ -4218,32 +5606,32 @@
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="121" t="s">
-        <v>439</v>
+        <v>559</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>441</v>
+        <v>561</v>
       </c>
       <c r="E15" s="121" t="n">
         <v>100</v>
       </c>
       <c r="F15" s="121" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="122" t="s">
-        <v>443</v>
+        <v>563</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>445</v>
+        <v>565</v>
       </c>
       <c r="E16" s="122" t="n">
         <v>2</v>
@@ -4255,18 +5643,18 @@
         <v>350</v>
       </c>
       <c r="H16" s="122" t="s">
-        <v>396</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="122" t="s">
-        <v>446</v>
+        <v>566</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="D17" s="122" t="s">
-        <v>447</v>
+        <v>567</v>
       </c>
       <c r="E17" s="122" t="n">
         <v>2</v>
@@ -4278,7 +5666,7 @@
         <v>900</v>
       </c>
       <c r="H17" s="122" t="s">
-        <v>448</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4311,7 +5699,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -4509,11 +5897,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4820,20 +6208,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5706,27 +7094,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
@@ -8090,7 +9478,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -8138,273 +9526,367 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:J14"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9028340080972"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="C5" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="D5" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="E5" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="F5" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="115"/>
-    </row>
-    <row r="5" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="116" t="s">
+      <c r="G5" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="116" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="116" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="E5" s="116" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="116" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="116" t="s">
+      <c r="C6" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="D6" s="117" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" s="117" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="116" t="s">
+      <c r="F6" s="117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="H6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="116" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="116" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" s="116" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="G6" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="C7" s="117" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="116" t="s">
+      <c r="D7" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="E7" s="117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="G7" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="116" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G7" s="116" t="s">
+      <c r="H7" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="117" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="116" t="s">
+      <c r="C8" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1</v>
+      <c r="E8" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="117" t="n">
+        <v>0.00175</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="F9" s="117" t="n">
+        <v>0.00825</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="G9" s="116" t="s">
+      <c r="H9" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="117" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="G10" s="116" t="s">
+      <c r="F10" s="117" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="117" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="117" t="n">
+        <v>34</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="117" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="G11" s="116" t="s">
-        <v>141</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="116" t="s">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="116" t="s">
-        <v>141</v>
+      <c r="D12" s="117" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="117" t="s">
+        <v>148</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>153</v>
+      <c r="C13" s="117" t="s">
+        <v>171</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.8E-005</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G13" s="116" t="s">
-        <v>171</v>
+        <v>0.0055</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="117" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>153</v>
+      <c r="B14" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="117" t="s">
+        <v>175</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2.5E-005</v>
+        <v>0.004</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>120</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="G14" s="116" t="s">
-        <v>174</v>
+        <v>0.001</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="H14" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="117" t="s">
         <v>175</v>
       </c>
-    </row>
+      <c r="D15" s="0" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0759</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8420,504 +9902,356 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S19"/>
+  <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="117" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-    </row>
-    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>184</v>
-      </c>
       <c r="D4" s="116" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>482.33</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.165</v>
+        <v>136</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="117" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="E5" s="117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="117" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>194</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.25</v>
+      <c r="B6" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="117" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="117" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="117"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>1.697</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="116" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="F8" s="116" t="n">
-        <v>25</v>
-      </c>
-      <c r="G8" s="116" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="116" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="116" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="116" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="116" t="s">
+      <c r="E12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="116" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="116" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="D13" s="0" t="n">
+        <v>1.8E-005</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>214</v>
+      <c r="B14" s="117" t="s">
+        <v>233</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2.5E-005</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.055</v>
+        <v>120</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1.5</v>
+        <v>0.033</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>235</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>215</v>
+      <c r="B15" s="117" t="s">
+        <v>237</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.01</v>
+        <v>238</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>148</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1" display="https://www.sensonor.com/products/gyro-modules/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8933,338 +10267,257 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:I17"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="115" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="115" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="115" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="116" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="116" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="F4" s="116" t="n">
-        <v>55</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="C3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="117" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="117" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="117" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="E7" s="117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="117" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="117" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E8" s="117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="116" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="F5" s="116" t="n">
-        <v>27</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="116" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="116" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F6" s="116" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="116" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="116" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="116" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="116" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="116" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="116" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F8" s="116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>250</v>
+      <c r="G8" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>262</v>
+      </c>
       <c r="C9" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.28</v>
+        <v>263</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>148</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.65</v>
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="C10" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.042</v>
+        <v>267</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>148</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>268</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="117" t="s">
+        <v>270</v>
+      </c>
       <c r="C11" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.28</v>
+        <v>271</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>148</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>272</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="117" t="s">
+        <v>274</v>
+      </c>
       <c r="C12" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.165</v>
+        <v>271</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>148</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>70</v>
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>275</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="116" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="119" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="F16" s="119" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9273,7 +10526,11 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ScanSat_Template_TB-Power_v0.1.xlsx
+++ b/ScanSat_Template_TB-Power_v0.1.xlsx
@@ -18,11 +18,13 @@
     <sheet name="Magnetometer" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="GPS Receivers" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Horizon Sensors" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Gyro" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Startrakers" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Rods" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="RW" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Propulsion" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="COMMS" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Payload" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Gyro" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Startrakers" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Rods" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="RW" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Propulsion" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="638">
   <si>
     <t xml:space="preserve">Project:</t>
   </si>
@@ -898,6 +900,213 @@
   </si>
   <si>
     <t xml:space="preserve">http://servo.com/index_htm_files/minidigital_hci.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISPICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iqspaceco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95x46x15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iq-spacecom.com/products/hispico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65x65x137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iq-spacecom.com/images/downloads/SLink_SLink-PHY_Datasheet_06.2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slink-PHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90x65x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iq-spacecom.com/images/downloads/XLink_Datasheet_06.2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argus 1000 Infrared Spectrometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45x50x80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCS Gecko imager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCS Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97x96x60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/scs-gecko-imager/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chameleon Imager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200x94x94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cubesatshop.com/product/chameleon-imager/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoRa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOS documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear transponder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeCor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperScout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hyperscout.nl/product/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80x70x70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cosine.nl/portfolio/mps/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82x88x39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://crystalspace.eu/wp-content/uploads/2015/12/Monitoring-camera.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45x25x45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://crystalspace.eu/products/crystalspace-c1u-cubesat-camera/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAM-IR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78x58x63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.msss.com/brochures/ir1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAM-C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78x58x44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.msss.com/brochures/c30.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAM-C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78x58x45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90mm Optical system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SatByl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98x98x243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.satbyul.com/90mm-optics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xScape100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 x 100 x 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simera.com/wp-content/uploads/2018/07/Simera-Sense-xScape100-tech-data-sheet-230718A-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TriScape100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiScape100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperScape100</t>
   </si>
   <si>
     <t xml:space="preserve">Gyroscop</t>
@@ -1763,7 +1972,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1786,7 +1994,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1794,7 +2001,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1802,7 +2008,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1810,21 +2015,18 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1833,7 +2035,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1841,7 +2042,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1849,7 +2049,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2293,7 +2492,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2764,6 +2963,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2828,11 +3031,10 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -2845,49 +3047,18 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
-        <charset val="1"/>
         <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <color rgb="FF000000"/>
-        <u val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2967,9 +3138,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9878542510121"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3162,7 +3333,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3264,10 +3435,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S19"/>
+  <dimension ref="C2:H8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="118" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="117" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="117" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F5" s="117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Standard"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Standard"&amp;10Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:G22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3277,7 +3599,444 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="115" t="s">
-        <v>288</v>
+        <v>300</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="117" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E4" s="117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F4" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="117" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="117" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E5" s="117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="117" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Standard"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Standard"&amp;10Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:S19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="115" t="s">
+        <v>357</v>
       </c>
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
@@ -3294,39 +4053,39 @@
         <v>135</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="E3" s="116" t="s">
         <v>136</v>
       </c>
       <c r="F3" s="116" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="G3" s="116" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="H3" s="116" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>139</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="C4" s="117" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.012</v>
@@ -3341,30 +4100,30 @@
         <v>0.235</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>482.33</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.016</v>
@@ -3379,24 +4138,24 @@
         <v>0.165</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="B6" s="117" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.016</v>
@@ -3411,10 +4170,10 @@
         <v>0.25</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>633</v>
@@ -3422,16 +4181,16 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="B7" s="117" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.25</v>
@@ -3443,10 +4202,10 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>1.697</v>
@@ -3454,16 +4213,16 @@
     </row>
     <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="C8" s="117" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="D8" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E8" s="117" t="n">
         <v>0.016</v>
@@ -3478,10 +4237,10 @@
         <v>0.35</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>625</v>
@@ -3489,19 +4248,19 @@
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="117" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E9" s="117" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="G9" s="117" t="s">
         <v>148</v>
@@ -3510,24 +4269,24 @@
         <v>0.6</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="117" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E10" s="117" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="F10" s="117" t="s">
         <v>161</v>
@@ -3539,27 +4298,27 @@
         <v>0.6</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="117" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="C11" s="117" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E11" s="117" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="117" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="G11" s="117" t="s">
         <v>148</v>
@@ -3568,21 +4327,21 @@
         <v>1.3</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.055</v>
@@ -3597,21 +4356,21 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.052</v>
@@ -3626,21 +4385,21 @@
         <v>1.5</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.055</v>
@@ -3655,21 +4414,21 @@
         <v>1.5</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.01</v>
@@ -3684,21 +4443,21 @@
         <v>0.05</v>
       </c>
       <c r="I15" s="117" t="s">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="117" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.01</v>
@@ -3713,21 +4472,21 @@
         <v>0.05</v>
       </c>
       <c r="I16" s="117" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.01</v>
@@ -3742,24 +4501,24 @@
         <v>0.05</v>
       </c>
       <c r="I17" s="117" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.015</v>
@@ -3771,24 +4530,24 @@
         <v>0.2</v>
       </c>
       <c r="I18" s="117" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.016</v>
@@ -3800,10 +4559,10 @@
         <v>0.3</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3839,8 +4598,8 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3852,10 +4611,10 @@
         <v>135</v>
       </c>
       <c r="E3" s="116" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="F3" s="116" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="G3" s="116" t="s">
         <v>138</v>
@@ -3866,10 +4625,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="117" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="E4" s="117" t="n">
         <v>0.185</v>
@@ -3881,18 +4640,18 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="117" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="E5" s="117" t="n">
         <v>0.282</v>
@@ -3903,19 +4662,19 @@
       <c r="G5" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H5" s="118" t="s">
-        <v>361</v>
+      <c r="H5" s="119" t="s">
+        <v>430</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="117" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="E6" s="117" t="n">
         <v>0.35</v>
@@ -3927,18 +4686,18 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="117" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="117" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="E7" s="117" t="n">
         <v>1.3</v>
@@ -3950,18 +4709,18 @@
         <v>1.5</v>
       </c>
       <c r="H7" s="117" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="117" t="s">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="D8" s="117" t="s">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="E8" s="117" t="n">
         <v>0.04</v>
@@ -3973,18 +4732,18 @@
         <v>0.65</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>372</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0.28</v>
@@ -3996,18 +4755,18 @@
         <v>0.65</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>372</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.042</v>
@@ -4019,18 +4778,18 @@
         <v>0.65</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0.28</v>
@@ -4042,18 +4801,18 @@
         <v>0.7</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.165</v>
@@ -4062,18 +4821,18 @@
         <v>70</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.19</v>
@@ -4085,18 +4844,18 @@
         <v>0.5</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.025</v>
@@ -4108,18 +4867,18 @@
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.35</v>
@@ -4131,33 +4890,33 @@
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="117" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>397</v>
-      </c>
-      <c r="E16" s="119" t="n">
+        <v>466</v>
+      </c>
+      <c r="E16" s="120" t="n">
         <v>0.175</v>
       </c>
-      <c r="F16" s="119" t="n">
+      <c r="F16" s="120" t="n">
         <v>60</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4179,7 +4938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4194,12 +4953,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4212,7 +4971,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="115" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="C8" s="115"/>
       <c r="D8" s="115"/>
@@ -4230,22 +4989,22 @@
         <v>134</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,7 +5012,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2</v>
@@ -4274,7 +5033,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +5041,7 @@
         <v>226</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -4303,7 +5062,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +5070,7 @@
         <v>226</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -4332,15 +5091,15 @@
         <v>14.5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.2</v>
@@ -4361,18 +5120,18 @@
         <v>9</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.2</v>
@@ -4387,21 +5146,21 @@
         <v>0.196</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0.2</v>
@@ -4416,21 +5175,21 @@
         <v>0.2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.3</v>
@@ -4445,18 +5204,18 @@
         <v>0.196</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.24</v>
@@ -4477,44 +5236,44 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0.19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.007</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0.2</v>
@@ -4535,15 +5294,15 @@
         <v>10.7</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0.5</v>
@@ -4564,15 +5323,15 @@
         <v>11.5</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0.13</v>
@@ -4587,18 +5346,18 @@
         <v>0.046</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1.19</v>
@@ -4613,18 +5372,18 @@
         <v>0.05</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4639,20 +5398,20 @@
         <v>350</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="117" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="C24" s="117" t="s">
-        <v>449</v>
-      </c>
-      <c r="D24" s="119" t="n">
+        <v>518</v>
+      </c>
+      <c r="D24" s="120" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -4661,22 +5420,22 @@
       <c r="F24" s="117" t="n">
         <v>0.45</v>
       </c>
-      <c r="G24" s="119" t="n">
+      <c r="G24" s="120" t="n">
         <v>0.23</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0.4</v>
@@ -4697,15 +5456,15 @@
         <v>14</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.1</v>
@@ -4720,13 +5479,13 @@
         <v>0.04</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4743,7 +5502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4758,12 +5517,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="88.1578947368421"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="88.9068825910931"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4777,17 +5536,17 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="120" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120" t="s">
-        <v>456</v>
-      </c>
-      <c r="I4" s="120"/>
+      <c r="C4" s="121" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121" t="s">
+        <v>525</v>
+      </c>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="116" t="s">
@@ -4800,16 +5559,16 @@
         <v>136</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="G5" s="116" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="H5" s="116" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="I5" s="116" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="K5" s="30"/>
     </row>
@@ -4817,29 +5576,29 @@
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="121" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" s="121" t="s">
+      <c r="C6" s="122" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="121" t="n">
+      <c r="E6" s="122" t="n">
         <v>185</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="121" t="n">
+      <c r="G6" s="122" t="n">
         <v>0.04</v>
       </c>
-      <c r="H6" s="122" t="s">
-        <v>462</v>
-      </c>
-      <c r="I6" s="122" t="s">
-        <v>463</v>
+      <c r="H6" s="123" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="123" t="s">
+        <v>532</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="K6" s="30"/>
     </row>
@@ -4847,29 +5606,29 @@
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="121" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="121" t="s">
+      <c r="C7" s="122" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="121" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="121" t="n">
+      <c r="E7" s="122" t="s">
+        <v>535</v>
+      </c>
+      <c r="F7" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="121" t="n">
+      <c r="G7" s="122" t="n">
         <v>0.005</v>
       </c>
-      <c r="H7" s="122" t="s">
-        <v>467</v>
-      </c>
-      <c r="I7" s="122" t="s">
-        <v>468</v>
+      <c r="H7" s="123" t="s">
+        <v>536</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>537</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="K7" s="30"/>
     </row>
@@ -4877,29 +5636,29 @@
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>469</v>
-      </c>
-      <c r="D8" s="121" t="s">
+      <c r="C8" s="122" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="F8" s="121" t="n">
+      <c r="E8" s="122" t="s">
+        <v>539</v>
+      </c>
+      <c r="F8" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="121" t="n">
+      <c r="G8" s="122" t="n">
         <v>0.018</v>
       </c>
-      <c r="H8" s="122" t="n">
+      <c r="H8" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="122" t="s">
-        <v>471</v>
+      <c r="I8" s="123" t="s">
+        <v>540</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="K8" s="30"/>
     </row>
@@ -4907,518 +5666,518 @@
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="121" t="s">
+      <c r="C9" s="122" t="s">
+        <v>541</v>
+      </c>
+      <c r="D9" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="121" t="n">
+      <c r="E9" s="122" t="n">
         <v>226</v>
       </c>
-      <c r="F9" s="121" t="n">
+      <c r="F9" s="122" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="121" t="n">
+      <c r="G9" s="122" t="n">
         <v>0.18</v>
       </c>
-      <c r="H9" s="122" t="s">
-        <v>473</v>
-      </c>
-      <c r="I9" s="122" t="s">
-        <v>474</v>
+      <c r="H9" s="123" t="s">
+        <v>542</v>
+      </c>
+      <c r="I9" s="123" t="s">
+        <v>543</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="121" t="s">
-        <v>475</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>476</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>477</v>
-      </c>
-      <c r="F10" s="121" t="n">
+      <c r="C10" s="122" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>546</v>
+      </c>
+      <c r="F10" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="121" t="n">
+      <c r="G10" s="122" t="n">
         <v>0.015</v>
       </c>
-      <c r="H10" s="122" t="n">
+      <c r="H10" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="122" t="s">
-        <v>478</v>
+      <c r="I10" s="123" t="s">
+        <v>547</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="121" t="s">
-        <v>480</v>
-      </c>
-      <c r="D11" s="121" t="s">
-        <v>476</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>481</v>
-      </c>
-      <c r="F11" s="121" t="n">
+      <c r="C11" s="122" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>545</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" s="122" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="121" t="n">
+      <c r="G11" s="122" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="122" t="n">
+      <c r="H11" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="122" t="s">
-        <v>482</v>
+      <c r="I11" s="123" t="s">
+        <v>551</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="122" t="s">
-        <v>483</v>
-      </c>
-      <c r="D12" s="122" t="s">
-        <v>375</v>
-      </c>
-      <c r="E12" s="122" t="s">
-        <v>484</v>
-      </c>
-      <c r="F12" s="122" t="n">
+      <c r="C12" s="123" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>553</v>
+      </c>
+      <c r="F12" s="123" t="n">
         <v>12</v>
       </c>
-      <c r="G12" s="122" t="n">
+      <c r="G12" s="123" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" s="122" t="s">
-        <v>485</v>
-      </c>
-      <c r="I12" s="122" t="s">
-        <v>486</v>
+      <c r="H12" s="123" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>555</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
-        <v>488</v>
-      </c>
-      <c r="D13" s="122" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="122" t="s">
-        <v>489</v>
-      </c>
-      <c r="F13" s="122" t="s">
+      <c r="C13" s="123" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="122" t="n">
+      <c r="G13" s="123" t="n">
         <v>0.006</v>
       </c>
-      <c r="H13" s="122" t="n">
+      <c r="H13" s="123" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" s="122" t="s">
-        <v>490</v>
+      <c r="I13" s="123" t="s">
+        <v>559</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="122" t="s">
-        <v>492</v>
-      </c>
-      <c r="D14" s="122" t="s">
-        <v>493</v>
-      </c>
-      <c r="E14" s="122" t="n">
+      <c r="C14" s="123" t="s">
+        <v>561</v>
+      </c>
+      <c r="D14" s="123" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="123" t="n">
         <v>0.024</v>
       </c>
-      <c r="F14" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="G14" s="122" t="n">
+      <c r="F14" s="123" t="s">
+        <v>563</v>
+      </c>
+      <c r="G14" s="123" t="n">
         <v>0.00058</v>
       </c>
-      <c r="H14" s="122" t="n">
+      <c r="H14" s="123" t="n">
         <v>0.625</v>
       </c>
-      <c r="I14" s="122" t="s">
-        <v>495</v>
+      <c r="I14" s="123" t="s">
+        <v>564</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>497</v>
-      </c>
-      <c r="D15" s="122" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" s="121" t="n">
+      <c r="C15" s="122" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" s="123" t="s">
+        <v>562</v>
+      </c>
+      <c r="E15" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="F15" s="121" t="n">
+      <c r="F15" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="121" t="n">
+      <c r="G15" s="122" t="n">
         <v>0.1</v>
       </c>
-      <c r="H15" s="121" t="n">
+      <c r="H15" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="121" t="s">
-        <v>498</v>
+      <c r="I15" s="122" t="s">
+        <v>567</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="122" t="s">
-        <v>500</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>501</v>
-      </c>
-      <c r="E16" s="122" t="n">
+      <c r="C16" s="123" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>570</v>
+      </c>
+      <c r="E16" s="123" t="n">
         <v>0.137</v>
       </c>
-      <c r="F16" s="122" t="s">
-        <v>502</v>
-      </c>
-      <c r="G16" s="122" t="n">
+      <c r="F16" s="123" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16" s="123" t="n">
         <v>0.02</v>
       </c>
-      <c r="H16" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>503</v>
-      </c>
-      <c r="J16" s="123" t="s">
-        <v>504</v>
+      <c r="H16" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>572</v>
+      </c>
+      <c r="J16" s="124" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="122" t="s">
-        <v>505</v>
-      </c>
-      <c r="D17" s="122" t="s">
-        <v>506</v>
-      </c>
-      <c r="E17" s="122" t="n">
+      <c r="C17" s="123" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" s="123" t="n">
         <v>0.06</v>
       </c>
-      <c r="F17" s="122" t="n">
+      <c r="F17" s="123" t="n">
         <v>0.23</v>
       </c>
-      <c r="G17" s="122" t="n">
+      <c r="G17" s="123" t="n">
         <v>0.0017</v>
       </c>
-      <c r="H17" s="122" t="n">
+      <c r="H17" s="123" t="n">
         <v>0.15</v>
       </c>
-      <c r="I17" s="122" t="s">
-        <v>507</v>
-      </c>
-      <c r="J17" s="123" t="s">
-        <v>508</v>
+      <c r="I17" s="123" t="s">
+        <v>576</v>
+      </c>
+      <c r="J17" s="124" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="122" t="s">
-        <v>509</v>
-      </c>
-      <c r="D18" s="122" t="s">
-        <v>506</v>
-      </c>
-      <c r="E18" s="122" t="n">
+      <c r="C18" s="123" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>575</v>
+      </c>
+      <c r="E18" s="123" t="n">
         <v>0.09</v>
       </c>
-      <c r="F18" s="122" t="n">
+      <c r="F18" s="123" t="n">
         <v>2.3</v>
       </c>
-      <c r="G18" s="122" t="n">
+      <c r="G18" s="123" t="n">
         <v>0.0036</v>
       </c>
-      <c r="H18" s="122" t="n">
+      <c r="H18" s="123" t="n">
         <v>0.19</v>
       </c>
-      <c r="I18" s="122" t="s">
-        <v>510</v>
-      </c>
-      <c r="J18" s="123" t="s">
-        <v>508</v>
+      <c r="I18" s="123" t="s">
+        <v>579</v>
+      </c>
+      <c r="J18" s="124" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="122" t="s">
-        <v>511</v>
-      </c>
-      <c r="D19" s="122" t="s">
-        <v>506</v>
-      </c>
-      <c r="E19" s="122" t="n">
+      <c r="C19" s="123" t="s">
+        <v>580</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>575</v>
+      </c>
+      <c r="E19" s="123" t="n">
         <v>0.15</v>
       </c>
-      <c r="F19" s="122" t="n">
+      <c r="F19" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="122" t="n">
+      <c r="G19" s="123" t="n">
         <v>0.01</v>
       </c>
-      <c r="H19" s="122" t="n">
+      <c r="H19" s="123" t="n">
         <v>0.19</v>
       </c>
-      <c r="I19" s="122" t="s">
-        <v>512</v>
-      </c>
-      <c r="J19" s="123" t="s">
-        <v>508</v>
+      <c r="I19" s="123" t="s">
+        <v>581</v>
+      </c>
+      <c r="J19" s="124" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="124" t="s">
-        <v>513</v>
-      </c>
-      <c r="C20" s="125" t="s">
-        <v>514</v>
-      </c>
-      <c r="D20" s="122" t="s">
-        <v>515</v>
-      </c>
-      <c r="E20" s="122" t="n">
+      <c r="B20" s="125" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>584</v>
+      </c>
+      <c r="E20" s="123" t="n">
         <v>0.694</v>
       </c>
-      <c r="F20" s="122" t="n">
+      <c r="F20" s="123" t="n">
         <v>0.635</v>
       </c>
-      <c r="G20" s="122" t="n">
+      <c r="G20" s="123" t="n">
         <v>0.0093</v>
       </c>
-      <c r="H20" s="122" t="n">
+      <c r="H20" s="123" t="n">
         <v>3.17</v>
       </c>
-      <c r="I20" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="J20" s="123" t="s">
-        <v>517</v>
+      <c r="I20" s="123" t="s">
+        <v>585</v>
+      </c>
+      <c r="J20" s="124" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="122" t="s">
-        <v>518</v>
-      </c>
-      <c r="D21" s="122" t="s">
-        <v>519</v>
-      </c>
-      <c r="E21" s="122" t="n">
+      <c r="C21" s="123" t="s">
+        <v>587</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" s="123" t="n">
         <v>0.02</v>
       </c>
-      <c r="F21" s="122" t="n">
+      <c r="F21" s="123" t="n">
         <v>0.1</v>
       </c>
-      <c r="G21" s="122" t="n">
+      <c r="G21" s="123" t="n">
         <v>0.002</v>
       </c>
-      <c r="H21" s="122" t="n">
+      <c r="H21" s="123" t="n">
         <v>0.15</v>
       </c>
-      <c r="I21" s="122" t="s">
-        <v>520</v>
+      <c r="I21" s="123" t="s">
+        <v>589</v>
       </c>
       <c r="J21" s="117" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="M21" s="126" t="s">
-        <v>524</v>
+        <v>592</v>
+      </c>
+      <c r="M21" s="127" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="122" t="s">
-        <v>525</v>
-      </c>
-      <c r="D22" s="122" t="s">
-        <v>526</v>
-      </c>
-      <c r="E22" s="122" t="n">
+      <c r="C22" s="123" t="s">
+        <v>594</v>
+      </c>
+      <c r="D22" s="123" t="s">
+        <v>595</v>
+      </c>
+      <c r="E22" s="123" t="n">
         <v>0.18</v>
       </c>
-      <c r="F22" s="122" t="n">
+      <c r="F22" s="123" t="n">
         <v>1.5</v>
       </c>
-      <c r="G22" s="122" t="n">
+      <c r="G22" s="123" t="n">
         <v>0.019</v>
       </c>
-      <c r="H22" s="122" t="n">
+      <c r="H22" s="123" t="n">
         <v>0.5</v>
       </c>
-      <c r="I22" s="122" t="s">
-        <v>527</v>
-      </c>
-      <c r="J22" s="123" t="s">
-        <v>528</v>
+      <c r="I22" s="123" t="s">
+        <v>596</v>
+      </c>
+      <c r="J22" s="124" t="s">
+        <v>597</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="M22" s="126" t="s">
-        <v>524</v>
+        <v>598</v>
+      </c>
+      <c r="M22" s="127" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="122" t="s">
-        <v>530</v>
-      </c>
-      <c r="D23" s="122" t="s">
-        <v>531</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122" t="n">
+      <c r="C23" s="123" t="s">
+        <v>599</v>
+      </c>
+      <c r="D23" s="123" t="s">
+        <v>600</v>
+      </c>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123" t="n">
         <v>0.5</v>
       </c>
-      <c r="G23" s="122" t="n">
+      <c r="G23" s="123" t="n">
         <v>0.004</v>
       </c>
-      <c r="H23" s="122" t="n">
+      <c r="H23" s="123" t="n">
         <v>0.6</v>
       </c>
-      <c r="I23" s="122" t="s">
-        <v>532</v>
-      </c>
-      <c r="J23" s="123" t="s">
-        <v>533</v>
+      <c r="I23" s="123" t="s">
+        <v>601</v>
+      </c>
+      <c r="J23" s="124" t="s">
+        <v>602</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="M23" s="126" t="s">
-        <v>524</v>
+        <v>603</v>
+      </c>
+      <c r="M23" s="127" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="122" t="s">
-        <v>535</v>
-      </c>
-      <c r="D24" s="122" t="s">
-        <v>536</v>
-      </c>
-      <c r="E24" s="122" t="n">
+      <c r="C24" s="123" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" s="123" t="s">
+        <v>605</v>
+      </c>
+      <c r="E24" s="123" t="n">
         <v>0.055</v>
       </c>
-      <c r="F24" s="122" t="n">
+      <c r="F24" s="123" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="122" t="n">
+      <c r="G24" s="123" t="n">
         <v>0.015</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122" t="s">
-        <v>537</v>
-      </c>
-      <c r="J24" s="123" t="s">
-        <v>538</v>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123" t="s">
+        <v>606</v>
+      </c>
+      <c r="J24" s="124" t="s">
+        <v>607</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="M24" s="127" t="s">
-        <v>539</v>
+        <v>525</v>
+      </c>
+      <c r="M24" s="128" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="122" t="s">
-        <v>540</v>
-      </c>
-      <c r="D25" s="122" t="s">
-        <v>541</v>
-      </c>
-      <c r="E25" s="122" t="n">
+      <c r="C25" s="123" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>610</v>
+      </c>
+      <c r="E25" s="123" t="n">
         <v>0.26</v>
       </c>
-      <c r="F25" s="122" t="n">
+      <c r="F25" s="123" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="122" t="n">
+      <c r="G25" s="123" t="n">
         <v>0.04</v>
       </c>
-      <c r="H25" s="122" t="n">
+      <c r="H25" s="123" t="n">
         <v>0.5</v>
       </c>
-      <c r="I25" s="122" t="s">
-        <v>542</v>
-      </c>
-      <c r="J25" s="123"/>
+      <c r="I25" s="123" t="s">
+        <v>611</v>
+      </c>
+      <c r="J25" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5438,7 +6197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5452,7 +6211,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3562753036437"/>
@@ -5460,20 +6219,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="117"/>
@@ -5508,15 +6267,15 @@
       <c r="G6" s="117"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="120" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="122"/>
+      <c r="B10" s="121" t="s">
+        <v>612</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="116" t="s">
@@ -5526,147 +6285,147 @@
         <v>135</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="E11" s="116" t="s">
         <v>138</v>
       </c>
       <c r="F11" s="116" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="G11" s="116" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="H11" s="116" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="121" t="s">
-        <v>547</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>548</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>549</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>550</v>
-      </c>
-      <c r="F12" s="121" t="n">
+      <c r="B12" s="122" t="s">
+        <v>616</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>617</v>
+      </c>
+      <c r="D12" s="122" t="s">
+        <v>618</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12" s="122" t="n">
         <v>1160</v>
       </c>
-      <c r="G12" s="121" t="s">
-        <v>551</v>
-      </c>
-      <c r="H12" s="122" t="s">
-        <v>552</v>
+      <c r="G12" s="122" t="s">
+        <v>620</v>
+      </c>
+      <c r="H12" s="123" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="121" t="s">
-        <v>553</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>554</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>555</v>
-      </c>
-      <c r="E13" s="121" t="n">
+      <c r="B13" s="122" t="s">
+        <v>622</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>623</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>624</v>
+      </c>
+      <c r="E13" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="121" t="n">
+      <c r="F13" s="122" t="n">
         <v>655</v>
       </c>
-      <c r="G13" s="121" t="n">
+      <c r="G13" s="122" t="n">
         <v>280</v>
       </c>
-      <c r="H13" s="130"/>
+      <c r="H13" s="131"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="121" t="s">
-        <v>556</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>557</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>558</v>
-      </c>
-      <c r="E14" s="121" t="s">
-        <v>550</v>
-      </c>
-      <c r="F14" s="121" t="n">
+      <c r="B14" s="122" t="s">
+        <v>625</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>626</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>627</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>619</v>
+      </c>
+      <c r="F14" s="122" t="n">
         <v>536</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="121" t="s">
-        <v>559</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>560</v>
-      </c>
-      <c r="D15" s="121" t="s">
-        <v>561</v>
-      </c>
-      <c r="E15" s="121" t="n">
+      <c r="B15" s="122" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>629</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>630</v>
+      </c>
+      <c r="E15" s="122" t="n">
         <v>100</v>
       </c>
-      <c r="F15" s="121" t="s">
-        <v>562</v>
-      </c>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
+      <c r="F15" s="122" t="s">
+        <v>631</v>
+      </c>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="122" t="s">
-        <v>563</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>564</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>565</v>
-      </c>
-      <c r="E16" s="122" t="n">
+      <c r="B16" s="123" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>633</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>634</v>
+      </c>
+      <c r="E16" s="123" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="122" t="n">
+      <c r="F16" s="123" t="n">
         <v>110</v>
       </c>
-      <c r="G16" s="122" t="n">
+      <c r="G16" s="123" t="n">
         <v>350</v>
       </c>
-      <c r="H16" s="122" t="s">
-        <v>516</v>
+      <c r="H16" s="123" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="122" t="s">
-        <v>566</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>564</v>
-      </c>
-      <c r="D17" s="122" t="s">
-        <v>567</v>
-      </c>
-      <c r="E17" s="122" t="n">
+      <c r="B17" s="123" t="s">
+        <v>635</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>633</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>636</v>
+      </c>
+      <c r="E17" s="123" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="122" t="n">
+      <c r="F17" s="123" t="n">
         <v>110</v>
       </c>
-      <c r="G17" s="122" t="n">
+      <c r="G17" s="123" t="n">
         <v>900</v>
       </c>
-      <c r="H17" s="122" t="s">
-        <v>568</v>
+      <c r="H17" s="123" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5699,7 +6458,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -5897,11 +6656,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6208,20 +6967,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7094,27 +7853,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
@@ -9450,7 +10209,7 @@
     <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="22" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9478,7 +10237,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -9535,7 +10294,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -9911,7 +10670,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
@@ -10270,7 +11029,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/ScanSat_Template_TB-Power_v0.1.xlsx
+++ b/ScanSat_Template_TB-Power_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Change-log" sheetId="1" state="visible" r:id="rId2"/>
@@ -1972,6 +1972,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1994,6 +1995,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2001,6 +2003,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2008,6 +2011,7 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2015,18 +2019,21 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2035,6 +2042,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2042,6 +2050,7 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2049,6 +2058,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2492,7 +2502,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2965,10 +2975,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3017,7 +3023,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3035,6 +3057,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -3047,18 +3070,17 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -3138,9 +3160,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3437,23 +3459,23 @@
   </sheetPr>
   <dimension ref="C2:H8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="116" t="s">
@@ -4026,7 +4048,7 @@
   <dimension ref="A2:S19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4598,7 +4620,7 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
@@ -4662,7 +4684,7 @@
       <c r="G5" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="118" t="s">
         <v>430</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -4903,10 +4925,10 @@
       <c r="D16" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="E16" s="120" t="n">
+      <c r="E16" s="119" t="n">
         <v>0.175</v>
       </c>
-      <c r="F16" s="120" t="n">
+      <c r="F16" s="119" t="n">
         <v>60</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -4953,12 +4975,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5411,7 +5433,7 @@
       <c r="C24" s="117" t="s">
         <v>518</v>
       </c>
-      <c r="D24" s="120" t="n">
+      <c r="D24" s="119" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -5420,7 +5442,7 @@
       <c r="F24" s="117" t="n">
         <v>0.45</v>
       </c>
-      <c r="G24" s="120" t="n">
+      <c r="G24" s="119" t="n">
         <v>0.23</v>
       </c>
       <c r="H24" s="0" t="s">
@@ -5509,7 +5531,7 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5517,12 +5539,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="8" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="88.9068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="89.6599190283401"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5536,17 +5558,17 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>524</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121" t="s">
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="I4" s="121"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="116" t="s">
@@ -5576,25 +5598,25 @@
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="121" t="s">
         <v>530</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="122" t="n">
+      <c r="E6" s="121" t="n">
         <v>185</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="122" t="n">
+      <c r="G6" s="121" t="n">
         <v>0.04</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="122" t="s">
         <v>531</v>
       </c>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="122" t="s">
         <v>532</v>
       </c>
       <c r="J6" s="0" t="s">
@@ -5606,25 +5628,25 @@
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="121" t="s">
         <v>534</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="121" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="122" t="n">
+      <c r="F7" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="122" t="n">
+      <c r="G7" s="121" t="n">
         <v>0.005</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="122" t="s">
         <v>536</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="122" t="s">
         <v>537</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -5636,25 +5658,25 @@
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="121" t="s">
         <v>538</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="121" t="s">
         <v>539</v>
       </c>
-      <c r="F8" s="122" t="n">
+      <c r="F8" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="122" t="n">
+      <c r="G8" s="121" t="n">
         <v>0.018</v>
       </c>
-      <c r="H8" s="123" t="n">
+      <c r="H8" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="122" t="s">
         <v>540</v>
       </c>
       <c r="J8" s="0" t="s">
@@ -5666,25 +5688,25 @@
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="121" t="s">
         <v>541</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="122" t="n">
+      <c r="E9" s="121" t="n">
         <v>226</v>
       </c>
-      <c r="F9" s="122" t="n">
+      <c r="F9" s="121" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="122" t="n">
+      <c r="G9" s="121" t="n">
         <v>0.18</v>
       </c>
-      <c r="H9" s="123" t="s">
+      <c r="H9" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="122" t="s">
         <v>543</v>
       </c>
       <c r="J9" s="0" t="s">
@@ -5695,25 +5717,25 @@
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>544</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="121" t="s">
         <v>545</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="121" t="s">
         <v>546</v>
       </c>
-      <c r="F10" s="122" t="n">
+      <c r="F10" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="122" t="n">
+      <c r="G10" s="121" t="n">
         <v>0.015</v>
       </c>
-      <c r="H10" s="123" t="n">
+      <c r="H10" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="122" t="s">
         <v>547</v>
       </c>
       <c r="J10" s="0" t="s">
@@ -5724,25 +5746,25 @@
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="121" t="s">
         <v>549</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="121" t="s">
         <v>545</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="121" t="s">
         <v>550</v>
       </c>
-      <c r="F11" s="122" t="n">
+      <c r="F11" s="121" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="122" t="n">
+      <c r="G11" s="121" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="123" t="n">
+      <c r="H11" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="122" t="s">
         <v>551</v>
       </c>
       <c r="J11" s="0" t="s">
@@ -5753,25 +5775,25 @@
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="122" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="122" t="s">
         <v>553</v>
       </c>
-      <c r="F12" s="123" t="n">
+      <c r="F12" s="122" t="n">
         <v>12</v>
       </c>
-      <c r="G12" s="123" t="n">
+      <c r="G12" s="122" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="122" t="s">
         <v>554</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="122" t="s">
         <v>555</v>
       </c>
       <c r="J12" s="0" t="s">
@@ -5782,25 +5804,25 @@
       <c r="A13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="122" t="s">
         <v>557</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="123" t="n">
+      <c r="G13" s="122" t="n">
         <v>0.006</v>
       </c>
-      <c r="H13" s="123" t="n">
+      <c r="H13" s="122" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" s="123" t="s">
+      <c r="I13" s="122" t="s">
         <v>559</v>
       </c>
       <c r="J13" s="0" t="s">
@@ -5811,25 +5833,25 @@
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="122" t="s">
         <v>561</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="122" t="s">
         <v>562</v>
       </c>
-      <c r="E14" s="123" t="n">
+      <c r="E14" s="122" t="n">
         <v>0.024</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="122" t="s">
         <v>563</v>
       </c>
-      <c r="G14" s="123" t="n">
+      <c r="G14" s="122" t="n">
         <v>0.00058</v>
       </c>
-      <c r="H14" s="123" t="n">
+      <c r="H14" s="122" t="n">
         <v>0.625</v>
       </c>
-      <c r="I14" s="123" t="s">
+      <c r="I14" s="122" t="s">
         <v>564</v>
       </c>
       <c r="J14" s="0" t="s">
@@ -5840,25 +5862,25 @@
       <c r="A15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="121" t="s">
         <v>566</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="122" t="s">
         <v>562</v>
       </c>
-      <c r="E15" s="122" t="n">
+      <c r="E15" s="121" t="n">
         <v>0.5</v>
       </c>
-      <c r="F15" s="122" t="n">
+      <c r="F15" s="121" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="122" t="n">
+      <c r="G15" s="121" t="n">
         <v>0.1</v>
       </c>
-      <c r="H15" s="122" t="n">
+      <c r="H15" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="121" t="s">
         <v>567</v>
       </c>
       <c r="J15" s="0" t="s">
@@ -5869,28 +5891,28 @@
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="122" t="s">
         <v>569</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="122" t="s">
         <v>570</v>
       </c>
-      <c r="E16" s="123" t="n">
+      <c r="E16" s="122" t="n">
         <v>0.137</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="122" t="s">
         <v>571</v>
       </c>
-      <c r="G16" s="123" t="n">
+      <c r="G16" s="122" t="n">
         <v>0.02</v>
       </c>
-      <c r="H16" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="123" t="s">
+      <c r="H16" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="122" t="s">
         <v>572</v>
       </c>
-      <c r="J16" s="124" t="s">
+      <c r="J16" s="123" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5898,28 +5920,28 @@
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="122" t="s">
         <v>574</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="122" t="s">
         <v>575</v>
       </c>
-      <c r="E17" s="123" t="n">
+      <c r="E17" s="122" t="n">
         <v>0.06</v>
       </c>
-      <c r="F17" s="123" t="n">
+      <c r="F17" s="122" t="n">
         <v>0.23</v>
       </c>
-      <c r="G17" s="123" t="n">
+      <c r="G17" s="122" t="n">
         <v>0.0017</v>
       </c>
-      <c r="H17" s="123" t="n">
+      <c r="H17" s="122" t="n">
         <v>0.15</v>
       </c>
-      <c r="I17" s="123" t="s">
+      <c r="I17" s="122" t="s">
         <v>576</v>
       </c>
-      <c r="J17" s="124" t="s">
+      <c r="J17" s="123" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5927,28 +5949,28 @@
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="122" t="s">
         <v>578</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="122" t="s">
         <v>575</v>
       </c>
-      <c r="E18" s="123" t="n">
+      <c r="E18" s="122" t="n">
         <v>0.09</v>
       </c>
-      <c r="F18" s="123" t="n">
+      <c r="F18" s="122" t="n">
         <v>2.3</v>
       </c>
-      <c r="G18" s="123" t="n">
+      <c r="G18" s="122" t="n">
         <v>0.0036</v>
       </c>
-      <c r="H18" s="123" t="n">
+      <c r="H18" s="122" t="n">
         <v>0.19</v>
       </c>
-      <c r="I18" s="123" t="s">
+      <c r="I18" s="122" t="s">
         <v>579</v>
       </c>
-      <c r="J18" s="124" t="s">
+      <c r="J18" s="123" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5956,28 +5978,28 @@
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="122" t="s">
         <v>580</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="122" t="s">
         <v>575</v>
       </c>
-      <c r="E19" s="123" t="n">
+      <c r="E19" s="122" t="n">
         <v>0.15</v>
       </c>
-      <c r="F19" s="123" t="n">
+      <c r="F19" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="123" t="n">
+      <c r="G19" s="122" t="n">
         <v>0.01</v>
       </c>
-      <c r="H19" s="123" t="n">
+      <c r="H19" s="122" t="n">
         <v>0.19</v>
       </c>
-      <c r="I19" s="123" t="s">
+      <c r="I19" s="122" t="s">
         <v>581</v>
       </c>
-      <c r="J19" s="124" t="s">
+      <c r="J19" s="123" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5985,31 +6007,31 @@
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="124" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="125" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="122" t="s">
         <v>584</v>
       </c>
-      <c r="E20" s="123" t="n">
+      <c r="E20" s="122" t="n">
         <v>0.694</v>
       </c>
-      <c r="F20" s="123" t="n">
+      <c r="F20" s="122" t="n">
         <v>0.635</v>
       </c>
-      <c r="G20" s="123" t="n">
+      <c r="G20" s="122" t="n">
         <v>0.0093</v>
       </c>
-      <c r="H20" s="123" t="n">
+      <c r="H20" s="122" t="n">
         <v>3.17</v>
       </c>
-      <c r="I20" s="123" t="s">
+      <c r="I20" s="122" t="s">
         <v>585</v>
       </c>
-      <c r="J20" s="124" t="s">
+      <c r="J20" s="123" t="s">
         <v>586</v>
       </c>
     </row>
@@ -6017,25 +6039,25 @@
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="122" t="s">
         <v>587</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="122" t="s">
         <v>588</v>
       </c>
-      <c r="E21" s="123" t="n">
+      <c r="E21" s="122" t="n">
         <v>0.02</v>
       </c>
-      <c r="F21" s="123" t="n">
+      <c r="F21" s="122" t="n">
         <v>0.1</v>
       </c>
-      <c r="G21" s="123" t="n">
+      <c r="G21" s="122" t="n">
         <v>0.002</v>
       </c>
-      <c r="H21" s="123" t="n">
+      <c r="H21" s="122" t="n">
         <v>0.15</v>
       </c>
-      <c r="I21" s="123" t="s">
+      <c r="I21" s="122" t="s">
         <v>589</v>
       </c>
       <c r="J21" s="117" t="s">
@@ -6047,7 +6069,7 @@
       <c r="L21" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="M21" s="127" t="s">
+      <c r="M21" s="126" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6055,34 +6077,34 @@
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="122" t="s">
         <v>594</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="E22" s="123" t="n">
+      <c r="E22" s="122" t="n">
         <v>0.18</v>
       </c>
-      <c r="F22" s="123" t="n">
+      <c r="F22" s="122" t="n">
         <v>1.5</v>
       </c>
-      <c r="G22" s="123" t="n">
+      <c r="G22" s="122" t="n">
         <v>0.019</v>
       </c>
-      <c r="H22" s="123" t="n">
+      <c r="H22" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="122" t="s">
         <v>596</v>
       </c>
-      <c r="J22" s="124" t="s">
+      <c r="J22" s="123" t="s">
         <v>597</v>
       </c>
       <c r="K22" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="M22" s="127" t="s">
+      <c r="M22" s="126" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6090,32 +6112,32 @@
       <c r="A23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="122" t="s">
         <v>599</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="122" t="s">
         <v>600</v>
       </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123" t="n">
+      <c r="E23" s="122"/>
+      <c r="F23" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="G23" s="123" t="n">
+      <c r="G23" s="122" t="n">
         <v>0.004</v>
       </c>
-      <c r="H23" s="123" t="n">
+      <c r="H23" s="122" t="n">
         <v>0.6</v>
       </c>
-      <c r="I23" s="123" t="s">
+      <c r="I23" s="122" t="s">
         <v>601</v>
       </c>
-      <c r="J23" s="124" t="s">
+      <c r="J23" s="123" t="s">
         <v>602</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="M23" s="127" t="s">
+      <c r="M23" s="126" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6123,32 +6145,32 @@
       <c r="A24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="122" t="s">
         <v>604</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="122" t="s">
         <v>605</v>
       </c>
-      <c r="E24" s="123" t="n">
+      <c r="E24" s="122" t="n">
         <v>0.055</v>
       </c>
-      <c r="F24" s="123" t="n">
+      <c r="F24" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="123" t="n">
+      <c r="G24" s="122" t="n">
         <v>0.015</v>
       </c>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="122" t="s">
         <v>606</v>
       </c>
-      <c r="J24" s="124" t="s">
+      <c r="J24" s="123" t="s">
         <v>607</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="M24" s="128" t="s">
+      <c r="M24" s="127" t="s">
         <v>608</v>
       </c>
     </row>
@@ -6156,28 +6178,28 @@
       <c r="A25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="122" t="s">
         <v>609</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="122" t="s">
         <v>610</v>
       </c>
-      <c r="E25" s="123" t="n">
+      <c r="E25" s="122" t="n">
         <v>0.26</v>
       </c>
-      <c r="F25" s="123" t="n">
+      <c r="F25" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="123" t="n">
+      <c r="G25" s="122" t="n">
         <v>0.04</v>
       </c>
-      <c r="H25" s="123" t="n">
+      <c r="H25" s="122" t="n">
         <v>0.5</v>
       </c>
-      <c r="I25" s="123" t="s">
+      <c r="I25" s="122" t="s">
         <v>611</v>
       </c>
-      <c r="J25" s="124"/>
+      <c r="J25" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6204,14 +6226,14 @@
   </sheetPr>
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3562753036437"/>
@@ -6219,20 +6241,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="117"/>
@@ -6267,164 +6289,164 @@
       <c r="G6" s="117"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="130" t="s">
         <v>612</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
     </row>
     <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="132" t="s">
         <v>613</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="G11" s="116" t="s">
+      <c r="G11" s="132" t="s">
         <v>615</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="132" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="122" t="s">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="133" t="s">
         <v>616</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="133" t="s">
         <v>618</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="133" t="s">
         <v>619</v>
       </c>
-      <c r="F12" s="122" t="n">
+      <c r="F12" s="133" t="n">
         <v>1160</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="131" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="122" t="s">
+    <row r="13" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="133" t="s">
         <v>622</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="133" t="s">
         <v>623</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="133" t="s">
         <v>624</v>
       </c>
-      <c r="E13" s="122" t="n">
+      <c r="E13" s="133" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="122" t="n">
+      <c r="F13" s="133" t="n">
         <v>655</v>
       </c>
-      <c r="G13" s="122" t="n">
+      <c r="G13" s="133" t="n">
         <v>280</v>
       </c>
-      <c r="H13" s="131"/>
-    </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="122" t="s">
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="133" t="s">
         <v>625</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="133" t="s">
         <v>626</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="133" t="s">
         <v>627</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="133" t="s">
         <v>619</v>
       </c>
-      <c r="F14" s="122" t="n">
+      <c r="F14" s="133" t="n">
         <v>536</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-    </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="122" t="s">
+      <c r="G14" s="133"/>
+      <c r="H14" s="131"/>
+    </row>
+    <row r="15" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="133" t="s">
         <v>628</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="133" t="s">
         <v>629</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="133" t="s">
         <v>630</v>
       </c>
-      <c r="E15" s="122" t="n">
+      <c r="E15" s="133" t="n">
         <v>100</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="133" t="s">
         <v>631</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="131" t="s">
         <v>632</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="131" t="s">
         <v>633</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="131" t="s">
         <v>634</v>
       </c>
-      <c r="E16" s="123" t="n">
+      <c r="E16" s="131" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="123" t="n">
+      <c r="F16" s="131" t="n">
         <v>110</v>
       </c>
-      <c r="G16" s="123" t="n">
+      <c r="G16" s="131" t="n">
         <v>350</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="131" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="131" t="s">
         <v>635</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="131" t="s">
         <v>633</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="131" t="s">
         <v>636</v>
       </c>
-      <c r="E17" s="123" t="n">
+      <c r="E17" s="131" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="123" t="n">
+      <c r="F17" s="131" t="n">
         <v>110</v>
       </c>
-      <c r="G17" s="123" t="n">
+      <c r="G17" s="131" t="n">
         <v>900</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="131" t="s">
         <v>637</v>
       </c>
     </row>
@@ -6458,7 +6480,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -6657,10 +6679,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6967,20 +6989,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7853,27 +7875,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
@@ -10237,7 +10259,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -10294,7 +10316,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -10670,7 +10692,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
